--- a/Assets/StreamingAssets/StoryScript29.xlsx
+++ b/Assets/StreamingAssets/StoryScript29.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C54564-8331-1544-A476-6E6C0E2A9CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13AC57F-9A49-2C4A-82A4-10B2B76B3956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="276">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,10 +341,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Happy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yao-Sad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -489,10 +485,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Wait！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I planned the act. I struck the killing blow. Everything was my fault.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -629,10 +621,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(an old man, thin as a reed, in tattered rags.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(And yet, the upright posture, the unmistakable dignity in his eyes and bearing—this was clearly no ordinary man.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -645,11 +633,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Lord Xu fell to his knees in the shadows.
-His anguished cries echoed through the dark prison chamber, unable to cease.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Xu2-Sad2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -718,10 +701,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The bandits had stolen my husband’s identification documents and used them to impersonate him.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(There, I saw him lift one of the floor tiles and open a hidden passage.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -858,10 +837,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Yes. Their hearts were not evil. They were simply blinded by hatred.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Their actions, though unlawful, were born of suffering.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1074,10 +1049,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Though Mei and the real Lord Xu were accomplices to murder, everything they did had cause.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>They’ve taken custody of the evidence and arrested Madam Mei, Ling, Lai and real Lord.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1086,10 +1057,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>End of story</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Evi-Laundry</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1098,10 +1065,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>History19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1110,11 +1073,68 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Yao, have you heard of the case of Xu Yuanqing in Xiagui County, Tongzhou?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>In this county, Xu Yuanqing avenged his father.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>End of game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sadness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(An old man, thin as a reed, in tattered rags.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wait!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goodbye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Lord Xu fell to his knees in the shadows.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(His anguished cries echoed through the dark prison chamber, unable to cease.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(......)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yet what drove them to such an end was not without cause.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Their hearts were not evil. They were simply blinded by hatred.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The bandits had stolen my husband’s &lt;color=#FFCC000&gt;identification documents&lt;/color&gt; and used them to impersonate him.</t>
+  </si>
+  <si>
+    <t>According to &lt;color=#FFCC000&gt;the Tang Code&lt;/color&gt;, Mei and the real Lord Xu were guilty of taking a life.</t>
+  </si>
+  <si>
+    <t>Yao, have you heard of &lt;color=#FFCC000&gt;the case of Xu Yuanqing&lt;/color&gt; in Xiagui County, Tongzhou?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Truth is not an end, but a light that shines into the human soul.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Every story must end. But may you never stop seeking the truth.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Thank you for playing this game :))&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1529,10 +1549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
-  <dimension ref="A1:P185"/>
+  <dimension ref="A1:P193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B163" workbookViewId="0">
-      <selection activeCell="M177" sqref="M177"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1603,7 +1623,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -1624,7 +1644,7 @@
         <v>-500</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="34">
@@ -1632,7 +1652,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -1652,7 +1672,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -1672,7 +1692,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
@@ -1694,7 +1714,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -1711,7 +1731,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
@@ -1728,7 +1748,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -1754,7 +1774,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -1774,7 +1794,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -1794,7 +1814,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>
@@ -1814,7 +1834,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -1834,7 +1854,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -1854,7 +1874,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -1874,7 +1894,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -1894,7 +1914,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
@@ -1914,7 +1934,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -1934,7 +1954,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -1954,7 +1974,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
@@ -1974,7 +1994,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
@@ -1994,7 +2014,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
@@ -2014,7 +2034,7 @@
         <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
@@ -2047,6 +2067,9 @@
       <c r="E23" t="s">
         <v>19</v>
       </c>
+      <c r="F23" t="s">
+        <v>261</v>
+      </c>
       <c r="J23" s="3" t="s">
         <v>17</v>
       </c>
@@ -2062,7 +2085,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
         <v>50</v>
@@ -2082,7 +2105,7 @@
         <v>37</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
         <v>38</v>
@@ -2102,7 +2125,7 @@
         <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
@@ -2122,7 +2145,7 @@
         <v>33</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C27" t="s">
         <v>36</v>
@@ -2142,7 +2165,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
@@ -2162,7 +2185,7 @@
         <v>41</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
         <v>42</v>
@@ -2182,7 +2205,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
         <v>44</v>
@@ -2202,7 +2225,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
         <v>35</v>
@@ -2222,7 +2245,7 @@
         <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C32" t="s">
         <v>45</v>
@@ -2242,7 +2265,7 @@
         <v>22</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
@@ -2262,7 +2285,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
         <v>46</v>
@@ -2288,7 +2311,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C35" t="s">
         <v>47</v>
@@ -2308,7 +2331,7 @@
         <v>18</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
         <v>48</v>
@@ -2325,7 +2348,7 @@
     </row>
     <row r="37" spans="1:12" ht="34">
       <c r="B37" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
@@ -2339,7 +2362,7 @@
     </row>
     <row r="38" spans="1:12" ht="34">
       <c r="B38" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
@@ -2356,7 +2379,7 @@
         <v>33</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -2376,7 +2399,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
         <v>46</v>
@@ -2393,7 +2416,7 @@
     </row>
     <row r="41" spans="1:12" ht="34">
       <c r="B41" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -2407,7 +2430,7 @@
     </row>
     <row r="42" spans="1:12" ht="34">
       <c r="B42" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
@@ -2424,7 +2447,7 @@
         <v>33</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
         <v>47</v>
@@ -2450,7 +2473,7 @@
         <v>33</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C44" t="s">
         <v>36</v>
@@ -2470,7 +2493,7 @@
         <v>33</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C45" t="s">
         <v>36</v>
@@ -2490,7 +2513,7 @@
         <v>33</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C46" t="s">
         <v>35</v>
@@ -2510,7 +2533,7 @@
         <v>33</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C47" t="s">
         <v>35</v>
@@ -2530,7 +2553,7 @@
         <v>33</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C48" t="s">
         <v>50</v>
@@ -2550,7 +2573,7 @@
         <v>33</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C49" t="s">
         <v>36</v>
@@ -2570,7 +2593,7 @@
         <v>33</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
         <v>35</v>
@@ -2590,7 +2613,7 @@
         <v>33</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C51" t="s">
         <v>46</v>
@@ -2605,12 +2628,12 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="1:14" ht="34">
+    <row r="52" spans="1:14" ht="51">
       <c r="A52" t="s">
         <v>33</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="C52" t="s">
         <v>46</v>
@@ -2625,7 +2648,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="4" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="N52" s="4" t="s">
         <v>17</v>
@@ -2636,7 +2659,7 @@
         <v>33</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C53" t="s">
         <v>46</v>
@@ -2658,7 +2681,7 @@
         <v>33</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C54" t="s">
         <v>50</v>
@@ -2682,7 +2705,7 @@
         <v>33</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C55" t="s">
         <v>36</v>
@@ -2699,7 +2722,7 @@
     </row>
     <row r="56" spans="1:14" ht="34">
       <c r="B56" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C56" t="s">
         <v>47</v>
@@ -2716,7 +2739,7 @@
     </row>
     <row r="57" spans="1:14" ht="34">
       <c r="B57" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
@@ -2730,7 +2753,7 @@
     </row>
     <row r="58" spans="1:14" ht="34">
       <c r="B58" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
@@ -2738,7 +2761,7 @@
     </row>
     <row r="59" spans="1:14" ht="34">
       <c r="B59" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
@@ -2752,7 +2775,7 @@
     </row>
     <row r="60" spans="1:14" ht="34">
       <c r="B60" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
@@ -2766,7 +2789,7 @@
     </row>
     <row r="61" spans="1:14" ht="34">
       <c r="B61" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
@@ -2780,7 +2803,7 @@
     </row>
     <row r="62" spans="1:14" ht="34">
       <c r="B62" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
@@ -2797,7 +2820,7 @@
         <v>33</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C63" t="s">
         <v>47</v>
@@ -2823,7 +2846,7 @@
         <v>33</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C64" t="s">
         <v>46</v>
@@ -2843,7 +2866,7 @@
         <v>33</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C65" t="s">
         <v>36</v>
@@ -2863,7 +2886,7 @@
         <v>33</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C66" t="s">
         <v>35</v>
@@ -2883,7 +2906,7 @@
         <v>33</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C67" t="s">
         <v>50</v>
@@ -2903,7 +2926,7 @@
         <v>33</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C68" t="s">
         <v>47</v>
@@ -2923,7 +2946,7 @@
         <v>33</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C69" t="s">
         <v>46</v>
@@ -2943,7 +2966,7 @@
         <v>33</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C70" t="s">
         <v>46</v>
@@ -2963,7 +2986,7 @@
         <v>33</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C71" t="s">
         <v>47</v>
@@ -2983,7 +3006,7 @@
         <v>33</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C72" t="s">
         <v>46</v>
@@ -3003,7 +3026,7 @@
         <v>33</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C73" t="s">
         <v>50</v>
@@ -3020,7 +3043,7 @@
     </row>
     <row r="74" spans="1:12" ht="34">
       <c r="B74" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
@@ -3037,7 +3060,7 @@
         <v>18</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C75" t="s">
         <v>25</v>
@@ -3057,7 +3080,7 @@
         <v>18</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C76" t="s">
         <v>26</v>
@@ -3077,7 +3100,7 @@
         <v>22</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C77" t="s">
         <v>23</v>
@@ -3097,7 +3120,7 @@
         <v>28</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C78" t="s">
         <v>29</v>
@@ -3117,7 +3140,7 @@
         <v>33</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C79" t="s">
         <v>35</v>
@@ -3137,7 +3160,7 @@
         <v>33</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C80" t="s">
         <v>35</v>
@@ -3154,7 +3177,7 @@
     </row>
     <row r="81" spans="1:12" ht="34">
       <c r="B81" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
@@ -3171,7 +3194,7 @@
         <v>39</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C82" t="s">
         <v>40</v>
@@ -3190,7 +3213,7 @@
     </row>
     <row r="83" spans="1:12" ht="34">
       <c r="B83" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D83" t="s">
         <v>12</v>
@@ -3204,7 +3227,7 @@
         <v>43</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C84" t="s">
         <v>44</v>
@@ -3230,7 +3253,7 @@
         <v>43</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C85" t="s">
         <v>44</v>
@@ -3250,7 +3273,7 @@
         <v>43</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C86" t="s">
         <v>52</v>
@@ -3270,7 +3293,7 @@
         <v>43</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C87" t="s">
         <v>53</v>
@@ -3290,7 +3313,7 @@
         <v>37</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>113</v>
+        <v>263</v>
       </c>
       <c r="C88" t="s">
         <v>54</v>
@@ -3316,7 +3339,7 @@
         <v>37</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C89" t="s">
         <v>38</v>
@@ -3336,7 +3359,7 @@
         <v>37</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C90" t="s">
         <v>56</v>
@@ -3356,7 +3379,7 @@
         <v>33</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C91" t="s">
         <v>57</v>
@@ -3376,7 +3399,7 @@
         <v>37</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C92" t="s">
         <v>38</v>
@@ -3398,7 +3421,7 @@
         <v>37</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C93" t="s">
         <v>38</v>
@@ -3415,7 +3438,7 @@
         <v>37</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C94" t="s">
         <v>56</v>
@@ -3429,7 +3452,7 @@
     </row>
     <row r="95" spans="1:12" ht="34">
       <c r="B95" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
@@ -3440,7 +3463,7 @@
     </row>
     <row r="96" spans="1:12" ht="51">
       <c r="B96" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D96" t="s">
         <v>12</v>
@@ -3454,7 +3477,7 @@
         <v>33</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C97" t="s">
         <v>57</v>
@@ -3468,7 +3491,7 @@
     </row>
     <row r="98" spans="1:12" ht="34">
       <c r="B98" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D98" t="s">
         <v>12</v>
@@ -3479,7 +3502,7 @@
     </row>
     <row r="99" spans="1:12" ht="34">
       <c r="B99" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
@@ -3490,7 +3513,7 @@
     </row>
     <row r="100" spans="1:12" ht="34">
       <c r="B100" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
@@ -3501,7 +3524,7 @@
     </row>
     <row r="101" spans="1:12" ht="34">
       <c r="B101" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
@@ -3512,7 +3535,7 @@
     </row>
     <row r="102" spans="1:12" ht="34">
       <c r="B102" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D102" t="s">
         <v>12</v>
@@ -3523,22 +3546,13 @@
     </row>
     <row r="103" spans="1:12" ht="34">
       <c r="B103" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D103" t="s">
         <v>12</v>
       </c>
       <c r="E103" t="s">
         <v>58</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H103" s="2">
-        <v>0</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="17">
@@ -3546,7 +3560,7 @@
         <v>18</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C104" t="s">
         <v>26</v>
@@ -3557,9 +3571,15 @@
       <c r="E104" t="s">
         <v>59</v>
       </c>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
+      <c r="G104" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H104" s="2">
+        <v>0</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="J104" s="3" t="s">
         <v>17</v>
       </c>
@@ -3575,7 +3595,7 @@
         <v>30</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C105" t="s">
         <v>61</v>
@@ -3595,7 +3615,7 @@
     </row>
     <row r="106" spans="1:12" ht="34">
       <c r="B106" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D106" t="s">
         <v>12</v>
@@ -3615,7 +3635,7 @@
         <v>30</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C107" t="s">
         <v>31</v>
@@ -3638,7 +3658,7 @@
         <v>30</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C108" t="s">
         <v>31</v>
@@ -3661,7 +3681,7 @@
         <v>30</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C109" t="s">
         <v>31</v>
@@ -3684,7 +3704,7 @@
         <v>39</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C110" t="s">
         <v>40</v>
@@ -3713,7 +3733,7 @@
         <v>39</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C111" t="s">
         <v>40</v>
@@ -3736,7 +3756,7 @@
         <v>39</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C112" t="s">
         <v>40</v>
@@ -3759,7 +3779,7 @@
         <v>18</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C113" t="s">
         <v>26</v>
@@ -3782,7 +3802,7 @@
         <v>18</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C114" t="s">
         <v>24</v>
@@ -3811,7 +3831,7 @@
         <v>22</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C115" t="s">
         <v>65</v>
@@ -3835,7 +3855,7 @@
     </row>
     <row r="116" spans="1:12" ht="34">
       <c r="B116" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D116" t="s">
         <v>12</v>
@@ -3846,7 +3866,7 @@
     </row>
     <row r="117" spans="1:12" ht="34">
       <c r="B117" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D117" t="s">
         <v>12</v>
@@ -3857,12 +3877,12 @@
     </row>
     <row r="118" spans="1:12" ht="34">
       <c r="B118" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="51">
       <c r="B119" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D119" t="s">
         <v>12</v>
@@ -3873,7 +3893,7 @@
     </row>
     <row r="120" spans="1:12" ht="17">
       <c r="B120" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D120" t="s">
         <v>12</v>
@@ -3887,7 +3907,7 @@
         <v>67</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C121" t="s">
         <v>68</v>
@@ -3901,7 +3921,7 @@
     </row>
     <row r="122" spans="1:12" ht="34">
       <c r="B122" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D122" t="s">
         <v>12</v>
@@ -3912,7 +3932,7 @@
     </row>
     <row r="123" spans="1:12" ht="34">
       <c r="B123" s="1" t="s">
-        <v>148</v>
+        <v>262</v>
       </c>
       <c r="D123" t="s">
         <v>12</v>
@@ -3923,7 +3943,7 @@
     </row>
     <row r="124" spans="1:12" ht="51">
       <c r="B124" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D124" t="s">
         <v>12</v>
@@ -3937,7 +3957,7 @@
         <v>67</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C125" t="s">
         <v>68</v>
@@ -3972,7 +3992,7 @@
         <v>18</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C126" t="s">
         <v>24</v>
@@ -3995,7 +4015,7 @@
         <v>18</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C127" t="s">
         <v>24</v>
@@ -4018,7 +4038,7 @@
         <v>18</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C128" t="s">
         <v>24</v>
@@ -4041,7 +4061,7 @@
         <v>18</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C129" t="s">
         <v>24</v>
@@ -4064,7 +4084,7 @@
         <v>18</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C130" t="s">
         <v>26</v>
@@ -4089,7 +4109,7 @@
         <v>18</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C131" t="s">
         <v>26</v>
@@ -4109,7 +4129,7 @@
         <v>18</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C132" t="s">
         <v>26</v>
@@ -4129,7 +4149,7 @@
         <v>69</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C133" t="s">
         <v>68</v>
@@ -4155,7 +4175,7 @@
         <v>69</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C134" t="s">
         <v>68</v>
@@ -4175,7 +4195,7 @@
         <v>69</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C135" t="s">
         <v>68</v>
@@ -4195,7 +4215,7 @@
         <v>69</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C136" t="s">
         <v>68</v>
@@ -4215,7 +4235,7 @@
         <v>69</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C137" t="s">
         <v>68</v>
@@ -4233,7 +4253,7 @@
         <v>500</v>
       </c>
       <c r="L137" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="34">
@@ -4241,7 +4261,7 @@
         <v>22</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C138" t="s">
         <v>65</v>
@@ -4261,7 +4281,7 @@
         <v>18</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C139" t="s">
         <v>25</v>
@@ -4281,7 +4301,7 @@
         <v>18</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C140" t="s">
         <v>25</v>
@@ -4301,7 +4321,7 @@
         <v>69</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C141" t="s">
         <v>70</v>
@@ -4327,7 +4347,7 @@
         <v>69</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C142" t="s">
         <v>70</v>
@@ -4347,7 +4367,7 @@
         <v>69</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C143" t="s">
         <v>70</v>
@@ -4367,7 +4387,7 @@
         <v>69</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C144" t="s">
         <v>70</v>
@@ -4387,7 +4407,7 @@
         <v>69</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C145" t="s">
         <v>71</v>
@@ -4407,7 +4427,7 @@
         <v>69</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C146" t="s">
         <v>71</v>
@@ -4427,7 +4447,7 @@
         <v>69</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C147" t="s">
         <v>71</v>
@@ -4447,7 +4467,7 @@
         <v>18</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C148" t="s">
         <v>27</v>
@@ -4467,7 +4487,7 @@
         <v>18</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C149" t="s">
         <v>21</v>
@@ -4487,7 +4507,7 @@
         <v>18</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C150" t="s">
         <v>25</v>
@@ -4507,7 +4527,7 @@
         <v>69</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C151" t="s">
         <v>70</v>
@@ -4525,7 +4545,7 @@
         <v>500</v>
       </c>
       <c r="L151" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="34">
@@ -4533,7 +4553,7 @@
         <v>18</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C152" t="s">
         <v>25</v>
@@ -4553,7 +4573,7 @@
         <v>69</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C153" t="s">
         <v>72</v>
@@ -4571,7 +4591,7 @@
         <v>500</v>
       </c>
       <c r="L153" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="17">
@@ -4579,7 +4599,7 @@
         <v>69</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C154" t="s">
         <v>72</v>
@@ -4596,7 +4616,7 @@
     </row>
     <row r="155" spans="1:12" ht="34">
       <c r="B155" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D155" t="s">
         <v>12</v>
@@ -4610,7 +4630,7 @@
     </row>
     <row r="156" spans="1:12" ht="34">
       <c r="B156" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D156" t="s">
         <v>12</v>
@@ -4629,7 +4649,7 @@
         <v>18</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C157" t="s">
         <v>21</v>
@@ -4655,7 +4675,7 @@
         <v>18</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C158" t="s">
         <v>21</v>
@@ -4675,7 +4695,7 @@
         <v>18</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C159" t="s">
         <v>21</v>
@@ -4695,7 +4715,7 @@
         <v>18</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C160" t="s">
         <v>26</v>
@@ -4715,7 +4735,7 @@
         <v>18</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C161" t="s">
         <v>25</v>
@@ -4737,7 +4757,7 @@
         <v>18</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C162" t="s">
         <v>26</v>
@@ -4749,9 +4769,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="51">
+    <row r="163" spans="1:14" ht="17">
       <c r="B163" s="1" t="s">
-        <v>152</v>
+        <v>265</v>
       </c>
       <c r="D163" t="s">
         <v>12</v>
@@ -4761,103 +4781,58 @@
       </c>
     </row>
     <row r="164" spans="1:14" ht="34">
-      <c r="A164" t="s">
+      <c r="B164" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D164" t="s">
+        <v>12</v>
+      </c>
+      <c r="E164" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" ht="17">
+      <c r="B165" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D165" t="s">
+        <v>12</v>
+      </c>
+      <c r="E165" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" ht="17">
+      <c r="B166" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D166" t="s">
+        <v>12</v>
+      </c>
+      <c r="E166" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" ht="17">
+      <c r="B167" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D167" t="s">
+        <v>12</v>
+      </c>
+      <c r="E167" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="34">
+      <c r="A168" t="s">
         <v>73</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C164" t="s">
+      <c r="B168" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C168" t="s">
         <v>74</v>
-      </c>
-      <c r="D164" t="s">
-        <v>12</v>
-      </c>
-      <c r="E164" t="s">
-        <v>75</v>
-      </c>
-      <c r="F164" t="s">
-        <v>76</v>
-      </c>
-      <c r="J164" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K164" s="3">
-        <v>500</v>
-      </c>
-      <c r="L164" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" ht="34">
-      <c r="A165" t="s">
-        <v>73</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C165" t="s">
-        <v>74</v>
-      </c>
-      <c r="D165" t="s">
-        <v>12</v>
-      </c>
-      <c r="E165" t="s">
-        <v>75</v>
-      </c>
-      <c r="J165" s="3"/>
-      <c r="K165" s="3"/>
-      <c r="L165" s="3"/>
-    </row>
-    <row r="166" spans="1:14" ht="34">
-      <c r="A166" t="s">
-        <v>73</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C166" t="s">
-        <v>74</v>
-      </c>
-      <c r="D166" t="s">
-        <v>12</v>
-      </c>
-      <c r="E166" t="s">
-        <v>75</v>
-      </c>
-      <c r="J166" s="3"/>
-      <c r="K166" s="3"/>
-      <c r="L166" s="3"/>
-    </row>
-    <row r="167" spans="1:14" ht="34">
-      <c r="A167" t="s">
-        <v>18</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C167" t="s">
-        <v>24</v>
-      </c>
-      <c r="D167" t="s">
-        <v>12</v>
-      </c>
-      <c r="E167" t="s">
-        <v>75</v>
-      </c>
-      <c r="J167" s="3"/>
-      <c r="K167" s="3"/>
-      <c r="L167" s="3"/>
-    </row>
-    <row r="168" spans="1:14" ht="17">
-      <c r="A168" t="s">
-        <v>18</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C168" t="s">
-        <v>24</v>
       </c>
       <c r="D168" t="s">
         <v>12</v>
@@ -4865,48 +4840,54 @@
       <c r="E168" t="s">
         <v>75</v>
       </c>
-      <c r="J168" s="3"/>
-      <c r="K168" s="3"/>
-      <c r="L168" s="3"/>
+      <c r="F168" t="s">
+        <v>264</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K168" s="3">
+        <v>500</v>
+      </c>
+      <c r="L168" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="169" spans="1:14" ht="34">
       <c r="A169" t="s">
         <v>73</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>130</v>
+        <v>252</v>
       </c>
       <c r="C169" t="s">
-        <v>265</v>
+        <v>74</v>
       </c>
       <c r="D169" t="s">
         <v>12</v>
       </c>
       <c r="E169" t="s">
-        <v>78</v>
-      </c>
-      <c r="J169" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K169" s="3">
-        <v>500</v>
-      </c>
-      <c r="L169" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14" ht="17">
+        <v>75</v>
+      </c>
+      <c r="J169" s="3"/>
+      <c r="K169" s="3"/>
+      <c r="L169" s="3"/>
+    </row>
+    <row r="170" spans="1:14" ht="34">
       <c r="A170" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
+      </c>
+      <c r="C170" t="s">
+        <v>74</v>
       </c>
       <c r="D170" t="s">
         <v>12</v>
       </c>
       <c r="E170" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
@@ -4914,19 +4895,19 @@
     </row>
     <row r="171" spans="1:14" ht="34">
       <c r="A171" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>259</v>
+        <v>198</v>
       </c>
       <c r="C171" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="D171" t="s">
         <v>12</v>
       </c>
       <c r="E171" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
@@ -4934,47 +4915,48 @@
     </row>
     <row r="172" spans="1:14" ht="17">
       <c r="A172" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C172" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="D172" t="s">
         <v>12</v>
       </c>
       <c r="E172" t="s">
-        <v>78</v>
-      </c>
-      <c r="J172" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J172" s="3"/>
       <c r="K172" s="3"/>
       <c r="L172" s="3"/>
     </row>
-    <row r="173" spans="1:14" ht="17">
+    <row r="173" spans="1:14" ht="34">
       <c r="A173" t="s">
         <v>73</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>206</v>
+        <v>128</v>
       </c>
       <c r="C173" t="s">
+        <v>76</v>
+      </c>
+      <c r="D173" t="s">
+        <v>12</v>
+      </c>
+      <c r="E173" t="s">
         <v>77</v>
       </c>
-      <c r="D173" t="s">
-        <v>12</v>
-      </c>
-      <c r="E173" t="s">
-        <v>78</v>
-      </c>
-      <c r="M173" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="N173" s="4" t="s">
+      <c r="J173" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="K173" s="3">
+        <v>500</v>
+      </c>
+      <c r="L173" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="174" spans="1:14" ht="17">
@@ -4982,138 +4964,127 @@
         <v>18</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="C174" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="D174" t="s">
         <v>12</v>
       </c>
       <c r="E174" t="s">
-        <v>78</v>
-      </c>
-      <c r="G174" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J174" s="3"/>
+      <c r="K174" s="3"/>
+      <c r="L174" s="3"/>
+    </row>
+    <row r="175" spans="1:14" ht="34">
+      <c r="A175" t="s">
+        <v>73</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C175" t="s">
+        <v>76</v>
+      </c>
+      <c r="D175" t="s">
+        <v>12</v>
+      </c>
+      <c r="E175" t="s">
+        <v>77</v>
+      </c>
+      <c r="J175" s="3"/>
+      <c r="K175" s="3"/>
+      <c r="L175" s="3"/>
+      <c r="M175" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="N175" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H174" s="2">
-        <v>-500</v>
-      </c>
-      <c r="I174" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M174" s="4"/>
-      <c r="N174" s="4"/>
-    </row>
-    <row r="175" spans="1:14" ht="17">
-      <c r="A175" t="s">
-        <v>18</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C175" t="s">
-        <v>24</v>
-      </c>
-      <c r="D175" t="s">
-        <v>12</v>
-      </c>
-      <c r="E175" t="s">
-        <v>78</v>
-      </c>
-      <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
-      <c r="I175" s="2"/>
-      <c r="M175" s="4"/>
-      <c r="N175" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" ht="34">
+    </row>
+    <row r="176" spans="1:14" ht="17">
       <c r="A176" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>268</v>
       </c>
       <c r="C176" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D176" t="s">
         <v>12</v>
       </c>
       <c r="E176" t="s">
-        <v>78</v>
-      </c>
-      <c r="G176" s="2"/>
-      <c r="H176" s="2"/>
-      <c r="I176" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="J176" s="3"/>
+      <c r="K176" s="3"/>
+      <c r="L176" s="3"/>
       <c r="M176" s="4"/>
       <c r="N176" s="4"/>
     </row>
     <row r="177" spans="1:14" ht="17">
       <c r="A177" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>269</v>
       </c>
       <c r="C177" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D177" t="s">
         <v>12</v>
       </c>
       <c r="E177" t="s">
-        <v>78</v>
-      </c>
-      <c r="G177" s="2"/>
-      <c r="H177" s="2"/>
-      <c r="I177" s="2"/>
-      <c r="M177" s="4" t="s">
-        <v>267</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="J177" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K177" s="3"/>
+      <c r="L177" s="3"/>
+      <c r="M177" s="4"/>
       <c r="N177" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14" ht="34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" ht="17">
       <c r="A178" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="C178" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D178" t="s">
         <v>12</v>
       </c>
       <c r="E178" t="s">
-        <v>78</v>
-      </c>
-      <c r="G178" s="2"/>
-      <c r="H178" s="2"/>
-      <c r="I178" s="2"/>
-      <c r="M178" s="4"/>
-      <c r="N178" s="4"/>
-    </row>
-    <row r="179" spans="1:14" ht="34">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" ht="17">
       <c r="A179" t="s">
         <v>18</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>132</v>
+        <v>201</v>
       </c>
       <c r="C179" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D179" t="s">
         <v>12</v>
       </c>
       <c r="E179" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>17</v>
@@ -5122,11 +5093,7 @@
         <v>-500</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M179" s="4"/>
-      <c r="N179" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="180" spans="1:14" ht="17">
@@ -5134,16 +5101,16 @@
         <v>18</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C180" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D180" t="s">
         <v>12</v>
       </c>
       <c r="E180" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
@@ -5154,16 +5121,16 @@
         <v>18</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="C181" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D181" t="s">
         <v>12</v>
       </c>
       <c r="E181" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
@@ -5171,75 +5138,235 @@
     </row>
     <row r="182" spans="1:14" ht="17">
       <c r="A182" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>133</v>
+        <v>259</v>
       </c>
       <c r="C182" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="D182" t="s">
         <v>12</v>
       </c>
       <c r="E182" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
-    </row>
-    <row r="183" spans="1:14" ht="17">
+      <c r="M182" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="N182" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" ht="34">
       <c r="A183" t="s">
         <v>18</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C183" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="D183" t="s">
         <v>12</v>
       </c>
       <c r="E183" t="s">
-        <v>78</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H183" s="2">
-        <v>-500</v>
-      </c>
-      <c r="I183" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14" ht="17">
+        <v>77</v>
+      </c>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
+      <c r="M183" s="4"/>
+      <c r="N183" s="4"/>
+    </row>
+    <row r="184" spans="1:14" ht="34">
       <c r="A184" t="s">
         <v>18</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C184" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="D184" t="s">
         <v>12</v>
       </c>
       <c r="E184" t="s">
+        <v>77</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H184" s="2">
+        <v>-500</v>
+      </c>
+      <c r="I184" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M184" s="4"/>
+      <c r="N184" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" ht="17">
+      <c r="A185" t="s">
+        <v>18</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C185" t="s">
+        <v>26</v>
+      </c>
+      <c r="D185" t="s">
+        <v>12</v>
+      </c>
+      <c r="E185" t="s">
+        <v>77</v>
+      </c>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+    </row>
+    <row r="186" spans="1:14" ht="34">
+      <c r="A186" t="s">
+        <v>18</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C186" t="s">
+        <v>26</v>
+      </c>
+      <c r="D186" t="s">
+        <v>12</v>
+      </c>
+      <c r="E186" t="s">
+        <v>77</v>
+      </c>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2"/>
+    </row>
+    <row r="187" spans="1:14" ht="17">
+      <c r="A187" t="s">
+        <v>73</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C187" t="s">
+        <v>74</v>
+      </c>
+      <c r="D187" t="s">
+        <v>12</v>
+      </c>
+      <c r="E187" t="s">
+        <v>77</v>
+      </c>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
+    </row>
+    <row r="188" spans="1:14" ht="17">
+      <c r="A188" t="s">
+        <v>18</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C188" t="s">
         <v>78</v>
       </c>
-      <c r="G184" s="2" t="s">
+      <c r="D188" t="s">
+        <v>12</v>
+      </c>
+      <c r="E188" t="s">
+        <v>77</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H188" s="2">
+        <v>-500</v>
+      </c>
+      <c r="I188" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" ht="17">
+      <c r="A189" t="s">
+        <v>18</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C189" t="s">
+        <v>78</v>
+      </c>
+      <c r="D189" t="s">
+        <v>12</v>
+      </c>
+      <c r="E189" t="s">
+        <v>77</v>
+      </c>
+      <c r="G189" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H184" s="2"/>
-      <c r="I184" s="2"/>
-    </row>
-    <row r="185" spans="1:14">
-      <c r="A185" t="s">
-        <v>262</v>
+      <c r="H189" s="2"/>
+      <c r="I189" s="2"/>
+    </row>
+    <row r="190" spans="1:14" ht="34">
+      <c r="B190" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D190" t="s">
+        <v>12</v>
+      </c>
+      <c r="E190" t="s">
+        <v>58</v>
+      </c>
+      <c r="G190" s="2"/>
+      <c r="H190" s="2"/>
+      <c r="I190" s="2"/>
+    </row>
+    <row r="191" spans="1:14" ht="34">
+      <c r="B191" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D191" t="s">
+        <v>12</v>
+      </c>
+      <c r="E191" t="s">
+        <v>58</v>
+      </c>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+    </row>
+    <row r="192" spans="1:14" ht="17">
+      <c r="B192" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D192" t="s">
+        <v>12</v>
+      </c>
+      <c r="E192" t="s">
+        <v>58</v>
+      </c>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="2"/>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/StoryScript29.xlsx
+++ b/Assets/StreamingAssets/StoryScript29.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13AC57F-9A49-2C4A-82A4-10B2B76B3956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17533EA7-ED59-3046-B304-95F11C10B07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="299">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -373,10 +373,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>It was driven from below because you’re shorter than the Master, correct?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yes. It was the two of us who killed him.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -409,732 +405,805 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Yes, I only uncovered his secret last year.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>praying that the bandits had released him and we could reunite there.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One of them had taken his place and was now serving as a court-appointed official.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My real husband and child had vanished without a trace.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Although he came under the pretense of being Ming’s friend, I recognized him immediately. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He was holding the same folding fan I had tucked into his swaddling clothes before we were separated.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We had originally planned to carry out the assassination on the fake Xu’s birthday, then flee the manor together as a family.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But the imposter realized our plan and chased after us.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So that’s how it was.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I had imagined countless times what your connection to Fu might be.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mother, I… I…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All things are empty, but karma is never void.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What are you trying to do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No!!!!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dr. Ran, how are they?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After waking, she drew this map of the pavilion, which marks the entrance to the hidden passage.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Of course. I will do everything in my power to help her.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Who’s there? Is someone out there?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I never thought the day would come when I could escape this lightless prison.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You mentioned that a murder took place in the manor. What happened?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The impostor stole my family, my future, my freedom—he stole everything I held dear in life.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How could I not hate such a man?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But did you ever consider what that revenge, so painstakingly plotted, might bring upon you and your family?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Would you like to see your son?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And in the end, you drove your only son to take his own life.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sir, there’s something I still want to say about this case at Qingliu Manor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Though he committed murder, his punishment was reduced because his cause was just.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yao, to uphold a just and virtuous society, both law and morality are essential.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, sir. I understand now.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let’s make haste.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We still have a long journey ahead before we reach Pengze County!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Mei slowly raised her head, her eyes filled with terrifying bloodshot veins.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(She spoke, word by word, revealing a truth that shocked everyone.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Ming covered his face and wept, unable to speak another word.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(As he spoke, Fu suddenly drew a blade from behind his back with lightning speed.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(The sudden turn of events shocked everyone.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(She paused, steadied her emotions, then continued her report with as much calm as she could muster.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(I pushed the door open with care. What lay beyond was a broad, dim space, divided by rows of rusty iron bars into prison cells.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(From one of the cells came a faint voice.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(We quickly located the source of the voice. From the darkness stepped a gaunt figure—)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(And yet, the upright posture, the unmistakable dignity in his eyes and bearing—this was clearly no ordinary man.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(The old man’s sorrow overflowed. Tears welled up in his eyes—once as dry as a dead well.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(He murmured to himself endlessly, unable to accept the truth that his only son had died.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xu2-Sad2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xu2-Shock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You also repeatedly claimed you were bedridden due to illness the entire evening—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Then why was your garment stained all over with mud?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can only mean it was present at the crime scene last night.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Was it your hairpin?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My child… I don’t regret killing him.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What pains me… is that I dragged you into this.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Treated us well? That was nothing but a façade.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why would you be so cruel… as to kill your own husband?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The reason he always treated me kindly in front of others…was because he needed me to help cover up a terrible secret.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Everyone stood frozen, stunned, as if the air itself had solidified.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Those words struck like a bolt of lightning through the night sky. )&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But on the way, we were ambushed by bandits.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the chaos, I was separated from my child.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">But when I arrived, I discovered the truth: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suspicious, he began watching us closely.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">He truly is the biological son of the fake Xu and me. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The reason I held back all these years was because of Ming.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amitabha. Though the Buddha is compassionate and offers salvation to all beings.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Those who commit murder must still face the consequences of karma.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mother, we’ve been apart for over ten years.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> I thought that after reuniting, we would never be separated again in this life. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But fate has not been kind to us.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(With a cry of anguish, she fainted on the spot.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Now they were scrambling in a frenzy, trying to save Fu and Lady Mei.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">While her physical condition is stable for now, her spirit has suffered greatly. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She must remain in bed to recover.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Who is still imprisoned in the underground chamber beneath the Treasure Vault.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Its iron lock, long unused, was crusted with rust.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(At the bottom of the stairs stood a half-open wooden door.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And we have just unraveled the murder case that occurred in this manor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The one who was abducted and impersonated by the bandits all those years ago.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is that correct?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It must have been many, many years since that disaster.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We now know the full story: all of this pain and bloodshed stems from the tragedy sixteen years ago.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Their act of murder was born of revenge.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>During that disaster sixteen years ago, eleven members of our family perished.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only the three of us survived.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>At the time, my son Fu was only a month old.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I would have my revenge.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">You killed the man you hated, your enemy. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But in doing so, you forced your wife to submit to that very enemy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What did this revenge bring you?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All it left behind was an even greater tragedy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Very well. We’ve already said our goodbyes to the people of the manor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It’s time for us to set off.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Their actions, though unlawful, were born of suffering.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Their story can only be summed up in these words:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Understandable in feeling, forgivable in motive.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>As enforcers of the law, it is important not only to uphold it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But also to consider how the law can be a tool for justice and good governance.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The scent on them——I believe everyone present now is very familiar with it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A piece of clothing carrying both soil and that particular fragrance......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why did Ling take Madam Mei’s clothes after the murder? Was she an accomplice as well?”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yesterday afternoon, while chatting with us, she became visibly uneasy the moment she heard we were from Luoyang——</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I see… so she stole Madam Mei’s clothes in an attempt to overstep her bounds?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Exactly. She had long harbored the desire to take Madam Mei’s place. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But little did she know, in doing so, she unwittingly took away the very evidence of Mei’s crime.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madam, was it really you?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He was traveling with me and our child to take up an official post in JiuJiang County.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>They abducted my husband and stole all our belongings.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">With nowhere else to go, I pressed on alone, hoping I might find my husband in JiuJiang County, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Once I gained access, I would find the key to the dungeon and free him——then kill the imposter.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The rest of the events unfolded exactly as Dee deduced.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(After she finished speaking, Madam Mei wiped the tears from her eyes and looked gently at Fu.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(As Madam Mei spoke of Ming, a faint light returned to her otherwise hollow gaze.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sir, is it not time to bring the two murderers to justice?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(He cast one final, lingering look at Madam Mei, then drew his blade and slashed at his own neck — taking his own life.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Madam Mei rushed forward and caught Fu’s blood-covered body.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Just moments ago, they were still moved by Madam Mei’s tragic story of revenge.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Two hours passed, and everyone waited anxiously outside Mei’s room.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fu is confirmed dead. Judging by the deep wound on his neck, it’s clear he had no hesitation——his will to die was absolute.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Mei fainted from extreme shock. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Butler He, please call Chen and Quan. We’ll search for the passage together.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Under Butler He’s guidance, we followed Mei’s map and quickly located the underground tunnel.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Who......are you?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am Judge Dee, formerly an Assistant Minister of the Court of Judicial Review.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My student Yao and I passed through this place on our journey to take office.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>These three are Butler He and the two guards, Chen and Quan.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Those memories feel like smoke from a distant past......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You were willing to die for revenge......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>From the moment I saw Mei in this underground prison, I vowed—no matter the cost, even if it meant my life——</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fu......How is he?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To protect his mother, Fu slit his own throat. Madam Mei, overwhelmed with grief, collapsed and lost consciousness.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">What......? What?! </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fu......he took his own life? He really......took his life?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sir, Butler He asked me to inform you: the bridge down the mountain has been repaired.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Also......the magistrates from the county arrived at the manor earlier today.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evi-Laundry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>History18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>History19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>History20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In this county, Xu Yuanqing avenged his father.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>End of game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sadness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(An old man, thin as a reed, in tattered rags.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wait!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goodbye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(His anguished cries echoed through the dark prison chamber, unable to cease.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(......)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yet what drove them to such an end was not without cause.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Their hearts were not evil. They were simply blinded by hatred.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Truth is not an end, but a light that shines into the human soul.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Every story must end. But may you never stop seeking the truth.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Thank you for playing this game :))&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The bandits had stolen my husband’s &lt;color=#FFCC00&gt;identification documents&lt;/color&gt; and used them to impersonate him.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yao, have you heard of &lt;color=#FFCC00&gt;the case of Xu Yuanqing&lt;/color&gt; in Xiagui County, Tongzhou?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It was all orchestrated by me, and no one else is involved!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I deliberately arranged to meet Ming in town and became his close friend.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But Ming is inherently kind.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So I decided to take matters into my own hands.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(He cried out in a hysterical, grief-stricken voice, as the light slowly faded from his hollow eyes.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Now that the truth is out, I am willing to accept whatever punishment comes my way—so long as you spare my mother and father.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One night, I followed him to the manor’s restricted Treasure Vault.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There, I saw him lift one of the floor tiles and open a hidden passage.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I crept down the secret path behind him and found a dimly lit underground prison.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Under the flickering candlelight, I saw the man imprisoned there—it was my husband.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We wept in joy. My husband then devised a plan to assassinate the imposter.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And so, for the sake of revenge, I forced myself to marry my enemy and was even compelled to bear his child.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>However, as I raised Ming, the burning desire for revenge in my heart gradually began to waver.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ming is innocent, and such cruelty would be too much for him to bear.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Just as I was hesitating over whether to continue with my plan for revenge, Fu appeared.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mei-Angry</t>
+  </si>
+  <si>
+    <t>Mei-Sad2</t>
+  </si>
+  <si>
+    <t>To protect Fu’s life, we had no choice but to flee the manor earlier than planned and try later.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">No. I’m afraid Ling did it because she was secretly involved with the Lord. </t>
+  </si>
+  <si>
+    <t>Perhaps she thought we were officials sent to investigate the Lord.</t>
+  </si>
+  <si>
     <t>He was a fake Lord of the Manor.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes, I only uncovered his secret last year.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>praying that the bandits had released him and we could reunite there.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>One of them had taken his place and was now serving as a court-appointed official.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>My real husband and child had vanished without a trace.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To take revenge, I first became a servant at Qingliu Manor.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">He instructed me to seduce the fake Master Xu, win his trust, and eventually become his wife. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>It was then that my long-lost son Fu arrived at Qingliu Manor.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Although he came under the pretense of being Ming’s friend, I recognized him immediately. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>He was holding the same folding fan I had tucked into his swaddling clothes before we were separated.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>We had originally planned to carry out the assassination on the fake Xu’s birthday, then flee the manor together as a family.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To protect Fu’s life, we had no choice but to flee the manor earlier than planned and try to regroup later.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>But the imposter realized our plan and chased after us.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>So that’s how it was.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I had imagined countless times what your connection to Fu might be.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I never would have guessed that the courteous and elegant master we all knew was once a ruthless bandit and murderer.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sixteen years ago, my husband—the real Lord Xu——was a humble scholar.</t>
+  </si>
+  <si>
+    <t>In order to uncover the truth, I decided to become a servant at Qingliu Manor, waiting for the right moment to get close to the fake Lord.</t>
+  </si>
+  <si>
+    <t>While I was investigating the fake Lord, I uncovered one of his dark secrets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He instructed me to seduce the fake Lord, win his trust, and eventually become his wife. </t>
+  </si>
+  <si>
+    <t>Killing the fake Lord would be no different from killing Ming’s father.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But the fake Lord unexpectedly saw Fu stealing the sword in the training square. </t>
+  </si>
+  <si>
+    <t>I never would have guessed that the courteous and elegant Lord we all knew was once a ruthless bandit and murderer.</t>
   </si>
   <si>
     <t>Then what about Young Lord Ming?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mother, I… I…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All things are empty, but karma is never void.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I planned the act. I struck the killing blow. Everything was my fault.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Now that the truth is out, I am willing to accept whatever punishment comes my way—so long as you spare my father and mother.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>What are you trying to do?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No!!!!!!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dr. Ran, how are they?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>After waking, she drew this map of the pavilion, which marks the entrance to the hidden passage.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Of course. I will do everything in my power to help her.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Who’s there? Is someone out there?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I never thought the day would come when I could escape this lightless prison.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>You mentioned that a murder took place in the manor. What happened?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The impostor stole my family, my future, my freedom—he stole everything I held dear in life.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>How could I not hate such a man?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>But did you ever consider what that revenge, so painstakingly plotted, might bring upon you and your family?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Would you like to see your son?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>And in the end, you drove your only son to take his own life.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sir, there’s something I still want to say about this case at Qingliu Manor.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Though he committed murder, his punishment was reduced because his cause was just.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yao, to uphold a just and virtuous society, both law and morality are essential.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes, sir. I understand now.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Let’s make haste.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>We still have a long journey ahead before we reach Pengze County!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Mei slowly raised her head, her eyes filled with terrifying bloodshot veins.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(She spoke, word by word, revealing a truth that shocked everyone.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(While secretly planning how to kill the imposter, I uncovered one of his dark secrets.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(I crept down the secret path behind him and found a dimly lit underground prison.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(We wept in joy. My husband then devised a plan to assassinate the imposter.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Ming covered his face and wept, unable to speak another word.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(As he spoke, Fu suddenly drew a blade from behind his back with lightning speed.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(The sudden turn of events shocked everyone.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(She paused, steadied her emotions, then continued her report with as much calm as she could muster.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(I pushed the door open with care. What lay beyond was a broad, dim space, divided by rows of rusty iron bars into prison cells.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(From one of the cells came a faint voice.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(We quickly located the source of the voice. From the darkness stepped a gaunt figure—)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(And yet, the upright posture, the unmistakable dignity in his eyes and bearing—this was clearly no ordinary man.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(The old man’s sorrow overflowed. Tears welled up in his eyes—once as dry as a dead well.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(He murmured to himself endlessly, unable to accept the truth that his only son had died.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xu2-Sad2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xu2-Shock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>You also repeatedly claimed you were bedridden due to illness the entire evening—</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Then why was your garment stained all over with mud?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Can only mean it was present at the crime scene last night.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Was it your hairpin?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>My child… I don’t regret killing him.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>What pains me… is that I dragged you into this.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Treated us well? That was nothing but a façade.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>But Madam, the Master always treated you and Ming well.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Why would you be so cruel… as to kill your own husband?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The reason he always treated me kindly in front of others…was because he needed me to help cover up a terrible secret.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Everyone stood frozen, stunned, as if the air itself had solidified.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Those words struck like a bolt of lightning through the night sky. )&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>But on the way, we were ambushed by bandits.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In the chaos, I was separated from my child.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">But when I arrived, I discovered the truth: </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(There, I saw him lift one of the floor tiles and open a hidden passage.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(One night, I followed him to the manor’s restricted Treasure Vault.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Under the flickering candlelight, I saw the man imprisoned there—it was my husband.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Suspicious, he began watching us closely.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">He truly is the biological son of the fake Xu and me. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The reason I held back all these years was because of Ming.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amitabha. Though the Buddha is compassionate and offers salvation to all beings.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Those who commit murder must still face the consequences of karma.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mother, we’ve been apart for over ten years.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> I thought that after reuniting, we would never be separated again in this life. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>But fate has not been kind to us.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(With a cry of anguish, she fainted on the spot.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Now they were scrambling in a frenzy, trying to save Fu and Lady Mei.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">While her physical condition is stable for now, her spirit has suffered greatly. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>She must remain in bed to recover.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Who is still imprisoned in the underground chamber beneath the Treasure Vault.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Its iron lock, long unused, was crusted with rust.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(At the bottom of the stairs stood a half-open wooden door.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>And we have just unraveled the murder case that occurred in this manor.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The one who was abducted and impersonated by the bandits all those years ago.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Is that correct?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>It must have been many, many years since that disaster.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>We now know the full story: all of this pain and bloodshed stems from the tragedy sixteen years ago.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Their act of murder was born of revenge.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>During that disaster sixteen years ago, eleven members of our family perished.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only the three of us survived.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>At the time, my son Fu was only a month old.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I would have my revenge.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">You killed the man you hated, your enemy. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>But in doing so, you forced your wife to submit to that very enemy.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>What did this revenge bring you?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All it left behind was an even greater tragedy.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Very well. We’ve already said our goodbyes to the people of the manor.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>It’s time for us to set off.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Their actions, though unlawful, were born of suffering.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Their story can only be summed up in these words:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Understandable in feeling, forgivable in motive.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>As enforcers of the law, it is important not only to uphold it.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>But also to consider how the law can be a tool for justice and good governance.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The scent on them——I believe everyone present now is very familiar with it.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A piece of clothing carrying both soil and that particular fragrance......</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Why did Ling take Madam Mei’s clothes after the murder? Was she an accomplice as well?”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">No. I’m afraid Ling did it because she was secretly involved with the Lord. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yesterday afternoon, while chatting with us, she became visibly uneasy the moment she heard we were from Luoyang——</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Perhaps she thought we were officials sent to investigate the Lord.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I see… so she stole Madam Mei’s clothes in an attempt to overstep her bounds?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Exactly. She had long harbored the desire to take Madam Mei’s place. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>But little did she know, in doing so, she unwittingly took away the very evidence of Mei’s crime.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Madam, was it really you?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Madam, the weapon that pierced the back of the Master’s neck——</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sixteen years ago, my husband—the real Lord Xu——was a humble scholar.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>He was traveling with me and our child to take up an official post in JiuJiang County.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>They abducted my husband and stole all our belongings.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">With nowhere else to go, I pressed on alone, hoping I might find my husband in JiuJiang County, </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(After sixteen long years, I had finally found the real Lord.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Once I gained access, I would find the key to the dungeon and free him——then kill the imposter.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">But the fake Lord unexpectedly saw Fu stealing the sword in the training square. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The rest of the events unfolded exactly as Dee deduced.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(After she finished speaking, Madam Mei wiped the tears from her eyes and looked gently at Fu.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(As Madam Mei spoke of Ming, a faint light returned to her otherwise hollow gaze.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sir, is it not time to bring the two murderers to justice?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(He cast one final, lingering look at Madam Mei, then drew his blade and slashed at his own neck — taking his own life.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Madam Mei rushed forward and caught Fu’s blood-covered body.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Just moments ago, they were still moved by Madam Mei’s tragic story of revenge.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Two hours passed, and everyone waited anxiously outside Mei’s room.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fu is confirmed dead. Judging by the deep wound on his neck, it’s clear he had no hesitation——his will to die was absolute.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Mei fainted from extreme shock. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sir, my mother wishes for you to help rescue the real Lord.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Butler He, please call Chen and Quan. We’ll search for the passage together.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Under Butler He’s guidance, we followed Mei’s map and quickly located the underground tunnel.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Who......are you?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I am Judge Dee, formerly an Assistant Minister of the Court of Judicial Review.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>My student Yao and I passed through this place on our journey to take office.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>These three are Butler He and the two guards, Chen and Quan.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>According to Mei’s account, you are the real Lord.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Yes. I am Xu, the real Lord of this manor.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Those memories feel like smoke from a distant past......</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Madam Mei and Fu carried out a plan to kill the false Lord——but it was all seen through by Dee.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>You were willing to die for revenge......</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>From the moment I saw Mei in this underground prison, I vowed—no matter the cost, even if it meant my life——</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fu......How is he?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To protect his mother, Fu slit his own throat. Madam Mei, overwhelmed with grief, collapsed and lost consciousness.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">What......? What?! </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fu......he took his own life? He really......took his life?!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>You plotted the downfall of the false Lord.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sir, Butler He asked me to inform you: the bridge down the mountain has been repaired.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Also......the magistrates from the county arrived at the manor earlier today.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Lord Xu fell to his knees in the shadows.)&lt;/color&gt;</t>
   </si>
   <si>
     <t>They’ve taken custody of the evidence and arrested Madam Mei, Ling, Lai and real Lord.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Do you… feel sympathy for Madam Mei and real Lord?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Evi-Laundry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>History18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>History19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>History20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In this county, Xu Yuanqing avenged his father.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>End of game</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sadness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(An old man, thin as a reed, in tattered rags.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wait!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goodbye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Lord Xu fell to his knees in the shadows.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(His anguished cries echoed through the dark prison chamber, unable to cease.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(......)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yet what drove them to such an end was not without cause.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Their hearts were not evil. They were simply blinded by hatred.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The bandits had stolen my husband’s &lt;color=#FFCC000&gt;identification documents&lt;/color&gt; and used them to impersonate him.</t>
-  </si>
-  <si>
-    <t>According to &lt;color=#FFCC000&gt;the Tang Code&lt;/color&gt;, Mei and the real Lord Xu were guilty of taking a life.</t>
-  </si>
-  <si>
-    <t>Yao, have you heard of &lt;color=#FFCC000&gt;the case of Xu Yuanqing&lt;/color&gt; in Xiagui County, Tongzhou?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Truth is not an end, but a light that shines into the human soul.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Every story must end. But may you never stop seeking the truth.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Thank you for playing this game :))&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>According to &lt;color=#FFCC00&gt;the Tang Code&lt;/color&gt;, Mei and the real Lord Xu were guilty of taking a life.</t>
+  </si>
+  <si>
+    <t>Madam, the weapon that pierced the back of the Lord’s neck——</t>
+  </si>
+  <si>
+    <t>It was driven from below because you’re shorter than the Lord, correct?</t>
+  </si>
+  <si>
+    <t>But Madam, the Lord always treated you and Ming well.</t>
+  </si>
+  <si>
+    <t>After moving into the manor, I constantly drove a wedge between him and the Lord, trying to incite him to commit patricide.</t>
+  </si>
+  <si>
+    <t>Even though he was deeply unhappy with the way the Lord controlled his life, he never followed through with my suggestion to poison him.</t>
+  </si>
+  <si>
+    <t>I attacked the Lord at the bridge, released a hallucinogenic powder, and struck the fatal blow.</t>
+  </si>
+  <si>
+    <t>Sir, there’s still something I don’t quite understand.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why didn’t the fake Lord simply kill the real Lord Xu to eliminate all future trouble?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That’s because the real Lord Xu still had value to him.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What do you mean?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xu was originally an imperial official appointed by the court to oversee all waterworks in the Jiujiang River.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The impostor, on the other hand, was nothing more than an illiterate bandit.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If the court issued any river management assignments, the impostor would have absolutely no ability to complete them.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>During inspections, it would be easy for him to slip up in his speech or behavior.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So he had to keep the real Lord Xu alive—to force answers out of him when needed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yao-Regular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Over the long span of more than ten years, I disguised myself as a virtuous wife and loving mother, all while secretly gathering evidence of the fake Lord’s many crimes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madam Mei and Fu carried out a plan to kill the fake Lord——but it was all seen through by Dee.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You plotted the downfall of the fake Lord.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1549,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
-  <dimension ref="A1:P193"/>
+  <dimension ref="A1:P213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="B198" sqref="B198"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1644,7 +1713,7 @@
         <v>-500</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="34">
@@ -1652,7 +1721,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -1714,7 +1783,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -1731,7 +1800,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
@@ -1748,7 +1817,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -1774,7 +1843,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -1814,7 +1883,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>
@@ -1834,7 +1903,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -1854,7 +1923,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -1874,7 +1943,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -1894,7 +1963,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -1914,7 +1983,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
@@ -1934,7 +2003,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -1954,7 +2023,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -1994,7 +2063,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>215</v>
+        <v>280</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
@@ -2014,7 +2083,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
@@ -2034,7 +2103,7 @@
         <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>84</v>
+        <v>281</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
@@ -2068,7 +2137,7 @@
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>17</v>
@@ -2085,7 +2154,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
         <v>50</v>
@@ -2105,7 +2174,7 @@
         <v>37</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
         <v>38</v>
@@ -2125,7 +2194,7 @@
         <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
@@ -2145,7 +2214,7 @@
         <v>33</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C27" t="s">
         <v>36</v>
@@ -2165,7 +2234,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
@@ -2185,7 +2254,7 @@
         <v>41</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
         <v>42</v>
@@ -2205,7 +2274,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
         <v>44</v>
@@ -2225,7 +2294,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
         <v>35</v>
@@ -2245,7 +2314,7 @@
         <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>158</v>
+        <v>282</v>
       </c>
       <c r="C32" t="s">
         <v>45</v>
@@ -2265,7 +2334,7 @@
         <v>22</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
@@ -2285,7 +2354,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C34" t="s">
         <v>46</v>
@@ -2311,7 +2380,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C35" t="s">
         <v>47</v>
@@ -2331,7 +2400,7 @@
         <v>18</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C36" t="s">
         <v>48</v>
@@ -2348,7 +2417,7 @@
     </row>
     <row r="37" spans="1:12" ht="34">
       <c r="B37" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
@@ -2362,7 +2431,7 @@
     </row>
     <row r="38" spans="1:12" ht="34">
       <c r="B38" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
@@ -2379,7 +2448,7 @@
         <v>33</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -2399,7 +2468,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>93</v>
+        <v>264</v>
       </c>
       <c r="C40" t="s">
         <v>46</v>
@@ -2416,7 +2485,7 @@
     </row>
     <row r="41" spans="1:12" ht="34">
       <c r="B41" s="1" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -2430,7 +2499,7 @@
     </row>
     <row r="42" spans="1:12" ht="34">
       <c r="B42" s="1" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
@@ -2447,7 +2516,7 @@
         <v>33</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s">
         <v>47</v>
@@ -2473,7 +2542,7 @@
         <v>33</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
       <c r="C44" t="s">
         <v>36</v>
@@ -2493,7 +2562,7 @@
         <v>33</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="C45" t="s">
         <v>36</v>
@@ -2513,7 +2582,7 @@
         <v>33</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C46" t="s">
         <v>35</v>
@@ -2533,7 +2602,7 @@
         <v>33</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="C47" t="s">
         <v>35</v>
@@ -2553,7 +2622,7 @@
         <v>33</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C48" t="s">
         <v>50</v>
@@ -2573,7 +2642,7 @@
         <v>33</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="C49" t="s">
         <v>36</v>
@@ -2593,7 +2662,7 @@
         <v>33</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C50" t="s">
         <v>35</v>
@@ -2613,7 +2682,7 @@
         <v>33</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C51" t="s">
         <v>46</v>
@@ -2628,12 +2697,12 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="1:14" ht="51">
+    <row r="52" spans="1:14" ht="34">
       <c r="A52" t="s">
         <v>33</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="C52" t="s">
         <v>46</v>
@@ -2648,7 +2717,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="4" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="N52" s="4" t="s">
         <v>17</v>
@@ -2659,7 +2728,7 @@
         <v>33</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C53" t="s">
         <v>46</v>
@@ -2681,7 +2750,7 @@
         <v>33</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C54" t="s">
         <v>50</v>
@@ -2700,12 +2769,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="17">
+    <row r="55" spans="1:14" ht="34">
       <c r="A55" t="s">
         <v>33</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>98</v>
+        <v>266</v>
       </c>
       <c r="C55" t="s">
         <v>36</v>
@@ -2721,8 +2790,11 @@
       <c r="L55" s="3"/>
     </row>
     <row r="56" spans="1:14" ht="34">
+      <c r="A56" t="s">
+        <v>33</v>
+      </c>
       <c r="B56" s="1" t="s">
-        <v>136</v>
+        <v>267</v>
       </c>
       <c r="C56" t="s">
         <v>47</v>
@@ -2737,9 +2809,15 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="1:14" ht="34">
+    <row r="57" spans="1:14" ht="17">
+      <c r="A57" t="s">
+        <v>33</v>
+      </c>
       <c r="B57" s="1" t="s">
-        <v>167</v>
+        <v>250</v>
+      </c>
+      <c r="C57" t="s">
+        <v>46</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
@@ -2751,17 +2829,35 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="1:14" ht="34">
+    <row r="58" spans="1:14" ht="17">
+      <c r="A58" t="s">
+        <v>33</v>
+      </c>
       <c r="B58" s="1" t="s">
-        <v>166</v>
+        <v>251</v>
+      </c>
+      <c r="C58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>19</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
     <row r="59" spans="1:14" ht="34">
+      <c r="A59" t="s">
+        <v>33</v>
+      </c>
       <c r="B59" s="1" t="s">
-        <v>137</v>
+        <v>252</v>
+      </c>
+      <c r="C59" t="s">
+        <v>259</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
@@ -2774,8 +2870,14 @@
       <c r="L59" s="3"/>
     </row>
     <row r="60" spans="1:14" ht="34">
+      <c r="A60" t="s">
+        <v>33</v>
+      </c>
       <c r="B60" s="1" t="s">
-        <v>168</v>
+        <v>253</v>
+      </c>
+      <c r="C60" t="s">
+        <v>47</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
@@ -2788,8 +2890,14 @@
       <c r="L60" s="3"/>
     </row>
     <row r="61" spans="1:14" ht="34">
+      <c r="A61" t="s">
+        <v>33</v>
+      </c>
       <c r="B61" s="1" t="s">
-        <v>220</v>
+        <v>254</v>
+      </c>
+      <c r="C61" t="s">
+        <v>36</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
@@ -2802,8 +2910,14 @@
       <c r="L61" s="3"/>
     </row>
     <row r="62" spans="1:14" ht="34">
+      <c r="A62" t="s">
+        <v>33</v>
+      </c>
       <c r="B62" s="1" t="s">
-        <v>138</v>
+        <v>268</v>
+      </c>
+      <c r="C62" t="s">
+        <v>47</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
@@ -2811,19 +2925,25 @@
       <c r="E62" t="s">
         <v>19</v>
       </c>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
+      <c r="J62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62" s="3">
+        <v>500</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="63" spans="1:14" ht="34">
       <c r="A63" t="s">
         <v>33</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="C63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
@@ -2831,25 +2951,19 @@
       <c r="E63" t="s">
         <v>19</v>
       </c>
-      <c r="J63" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K63" s="3">
-        <v>500</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
     </row>
     <row r="64" spans="1:14" ht="34">
       <c r="A64" t="s">
         <v>33</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="C64" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
@@ -2861,15 +2975,15 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="17">
+    <row r="65" spans="1:12" ht="51">
       <c r="A65" t="s">
         <v>33</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>100</v>
+        <v>296</v>
       </c>
       <c r="C65" t="s">
-        <v>36</v>
+        <v>260</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
@@ -2886,10 +3000,10 @@
         <v>33</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>101</v>
+        <v>256</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
@@ -2901,12 +3015,12 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="34">
+    <row r="67" spans="1:12" ht="17">
       <c r="A67" t="s">
         <v>33</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>102</v>
+        <v>269</v>
       </c>
       <c r="C67" t="s">
         <v>50</v>
@@ -2921,15 +3035,15 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="34">
+    <row r="68" spans="1:12" ht="17">
       <c r="A68" t="s">
         <v>33</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>103</v>
+        <v>257</v>
       </c>
       <c r="C68" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
@@ -2946,10 +3060,10 @@
         <v>33</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="C69" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
@@ -2961,15 +3075,15 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="17">
+    <row r="70" spans="1:12" ht="34">
       <c r="A70" t="s">
         <v>33</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="C70" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
@@ -2986,10 +3100,10 @@
         <v>33</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C71" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
@@ -3001,15 +3115,15 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="17">
+    <row r="72" spans="1:12" ht="34">
       <c r="A72" t="s">
         <v>33</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D72" t="s">
         <v>12</v>
@@ -3021,15 +3135,15 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="17">
+    <row r="73" spans="1:12" ht="34">
       <c r="A73" t="s">
         <v>33</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="C73" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
@@ -3041,9 +3155,15 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="34">
+    <row r="74" spans="1:12" ht="17">
+      <c r="A74" t="s">
+        <v>33</v>
+      </c>
       <c r="B74" s="1" t="s">
-        <v>224</v>
+        <v>152</v>
+      </c>
+      <c r="C74" t="s">
+        <v>46</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
@@ -3055,15 +3175,15 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="17">
+    <row r="75" spans="1:12" ht="34">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>106</v>
+        <v>261</v>
       </c>
       <c r="C75" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
@@ -3077,13 +3197,13 @@
     </row>
     <row r="76" spans="1:12" ht="17">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C76" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
@@ -3095,15 +3215,15 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="34">
+    <row r="77" spans="1:12" ht="17">
       <c r="A77" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="C77" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
@@ -3115,15 +3235,9 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="17">
-      <c r="A78" t="s">
-        <v>28</v>
-      </c>
+    <row r="78" spans="1:12" ht="34">
       <c r="B78" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C78" t="s">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="D78" t="s">
         <v>12</v>
@@ -3137,13 +3251,13 @@
     </row>
     <row r="79" spans="1:12" ht="17">
       <c r="A79" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D79" t="s">
         <v>12</v>
@@ -3157,13 +3271,13 @@
     </row>
     <row r="80" spans="1:12" ht="17">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
@@ -3176,8 +3290,14 @@
       <c r="L80" s="3"/>
     </row>
     <row r="81" spans="1:12" ht="34">
+      <c r="A81" t="s">
+        <v>22</v>
+      </c>
       <c r="B81" s="1" t="s">
-        <v>225</v>
+        <v>271</v>
+      </c>
+      <c r="C81" t="s">
+        <v>23</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
@@ -3191,13 +3311,13 @@
     </row>
     <row r="82" spans="1:12" ht="17">
       <c r="A82" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>110</v>
+        <v>272</v>
       </c>
       <c r="C82" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
@@ -3205,15 +3325,19 @@
       <c r="E82" t="s">
         <v>19</v>
       </c>
-      <c r="J82" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="34">
+    <row r="83" spans="1:12" ht="17">
+      <c r="A83" t="s">
+        <v>33</v>
+      </c>
       <c r="B83" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
+      </c>
+      <c r="C83" t="s">
+        <v>35</v>
       </c>
       <c r="D83" t="s">
         <v>12</v>
@@ -3221,16 +3345,19 @@
       <c r="E83" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" ht="34">
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="1:12" ht="17">
       <c r="A84" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C84" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
@@ -3238,25 +3365,13 @@
       <c r="E84" t="s">
         <v>19</v>
       </c>
-      <c r="J84" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K84" s="3">
-        <v>500</v>
-      </c>
-      <c r="L84" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="17">
-      <c r="A85" t="s">
-        <v>43</v>
-      </c>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="1:12" ht="34">
       <c r="B85" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C85" t="s">
-        <v>44</v>
+        <v>202</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
@@ -3270,13 +3385,13 @@
     </row>
     <row r="86" spans="1:12" ht="17">
       <c r="A86" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C86" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D86" t="s">
         <v>12</v>
@@ -3284,39 +3399,32 @@
       <c r="E86" t="s">
         <v>19</v>
       </c>
-      <c r="J86" s="3"/>
+      <c r="J86" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="17">
-      <c r="A87" t="s">
+    <row r="87" spans="1:12" ht="34">
+      <c r="B87" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="34">
+      <c r="A88" t="s">
         <v>43</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C87" t="s">
-        <v>53</v>
-      </c>
-      <c r="D87" t="s">
-        <v>12</v>
-      </c>
-      <c r="E87" t="s">
-        <v>19</v>
-      </c>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="1:12" ht="17">
-      <c r="A88" t="s">
-        <v>37</v>
-      </c>
       <c r="B88" s="1" t="s">
-        <v>263</v>
+        <v>155</v>
       </c>
       <c r="C88" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D88" t="s">
         <v>12</v>
@@ -3331,18 +3439,18 @@
         <v>500</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="17">
       <c r="A89" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="C89" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D89" t="s">
         <v>12</v>
@@ -3354,15 +3462,15 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="34">
+    <row r="90" spans="1:12" ht="17">
       <c r="A90" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C90" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D90" t="s">
         <v>12</v>
@@ -3376,13 +3484,13 @@
     </row>
     <row r="91" spans="1:12" ht="17">
       <c r="A91" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="C91" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D91" t="s">
         <v>12</v>
@@ -3399,10 +3507,10 @@
         <v>37</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="C92" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D92" t="s">
         <v>12</v>
@@ -3411,17 +3519,21 @@
         <v>19</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="1:12" ht="34">
+        <v>17</v>
+      </c>
+      <c r="K92" s="3">
+        <v>500</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="17">
       <c r="A93" t="s">
         <v>37</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>175</v>
+        <v>244</v>
       </c>
       <c r="C93" t="s">
         <v>38</v>
@@ -3432,13 +3544,16 @@
       <c r="E93" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" ht="17">
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="1:12" ht="34">
       <c r="A94" t="s">
         <v>37</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>176</v>
+        <v>245</v>
       </c>
       <c r="C94" t="s">
         <v>56</v>
@@ -3449,10 +3564,19 @@
       <c r="E94" t="s">
         <v>19</v>
       </c>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
     </row>
     <row r="95" spans="1:12" ht="34">
+      <c r="A95" t="s">
+        <v>37</v>
+      </c>
       <c r="B95" s="1" t="s">
-        <v>140</v>
+        <v>283</v>
+      </c>
+      <c r="C95" t="s">
+        <v>38</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
@@ -3460,10 +3584,19 @@
       <c r="E95" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" ht="51">
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="1:12" ht="17">
+      <c r="A96" t="s">
+        <v>37</v>
+      </c>
       <c r="B96" s="1" t="s">
-        <v>227</v>
+        <v>246</v>
+      </c>
+      <c r="C96" t="s">
+        <v>56</v>
       </c>
       <c r="D96" t="s">
         <v>12</v>
@@ -3471,16 +3604,19 @@
       <c r="E96" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" ht="17">
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="1:12" ht="34">
       <c r="A97" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>115</v>
+        <v>284</v>
       </c>
       <c r="C97" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D97" t="s">
         <v>12</v>
@@ -3488,10 +3624,19 @@
       <c r="E97" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" ht="34">
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="1:12" ht="17">
+      <c r="A98" t="s">
+        <v>37</v>
+      </c>
       <c r="B98" s="1" t="s">
-        <v>228</v>
+        <v>247</v>
+      </c>
+      <c r="C98" t="s">
+        <v>56</v>
       </c>
       <c r="D98" t="s">
         <v>12</v>
@@ -3499,10 +3644,19 @@
       <c r="E98" t="s">
         <v>19</v>
       </c>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
     </row>
     <row r="99" spans="1:12" ht="34">
+      <c r="A99" t="s">
+        <v>37</v>
+      </c>
       <c r="B99" s="1" t="s">
-        <v>177</v>
+        <v>285</v>
+      </c>
+      <c r="C99" t="s">
+        <v>38</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
@@ -3510,498 +3664,499 @@
       <c r="E99" t="s">
         <v>19</v>
       </c>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
     </row>
     <row r="100" spans="1:12" ht="34">
+      <c r="A100" t="s">
+        <v>37</v>
+      </c>
       <c r="B100" s="1" t="s">
-        <v>141</v>
+        <v>249</v>
+      </c>
+      <c r="C100" t="s">
+        <v>56</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>58</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
     </row>
     <row r="101" spans="1:12" ht="34">
       <c r="B101" s="1" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="34">
+        <v>19</v>
+      </c>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="1:12" ht="17">
+      <c r="A102" t="s">
+        <v>33</v>
+      </c>
       <c r="B102" s="1" t="s">
-        <v>178</v>
+        <v>104</v>
+      </c>
+      <c r="C102" t="s">
+        <v>57</v>
       </c>
       <c r="D102" t="s">
         <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="34">
+        <v>19</v>
+      </c>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+    </row>
+    <row r="103" spans="1:12" ht="17">
+      <c r="A103" t="s">
+        <v>37</v>
+      </c>
       <c r="B103" s="1" t="s">
-        <v>230</v>
+        <v>157</v>
+      </c>
+      <c r="C103" t="s">
+        <v>38</v>
       </c>
       <c r="D103" t="s">
         <v>12</v>
       </c>
       <c r="E103" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="17">
+        <v>19</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+    </row>
+    <row r="104" spans="1:12" ht="34">
       <c r="A104" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="C104" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D104" t="s">
         <v>12</v>
       </c>
       <c r="E104" t="s">
-        <v>59</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H104" s="2">
-        <v>0</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K104" s="3">
-        <v>0</v>
-      </c>
-      <c r="L104" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="17">
       <c r="A105" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>231</v>
+        <v>159</v>
       </c>
       <c r="C105" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D105" t="s">
         <v>12</v>
       </c>
       <c r="E105" t="s">
-        <v>62</v>
-      </c>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
-      <c r="L105" s="3"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="106" spans="1:12" ht="34">
       <c r="B106" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D106" t="s">
         <v>12</v>
       </c>
       <c r="E106" t="s">
-        <v>62</v>
-      </c>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
-    </row>
-    <row r="107" spans="1:12" ht="17">
-      <c r="A107" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="51">
       <c r="B107" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C107" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="D107" t="s">
         <v>12</v>
       </c>
       <c r="E107" t="s">
-        <v>62</v>
-      </c>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
-      <c r="L107" s="3"/>
-    </row>
-    <row r="108" spans="1:12" ht="34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="17">
       <c r="A108" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="C108" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D108" t="s">
         <v>12</v>
       </c>
       <c r="E108" t="s">
-        <v>59</v>
-      </c>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-    </row>
-    <row r="109" spans="1:12" ht="17">
-      <c r="A109" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="34">
       <c r="B109" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C109" t="s">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="D109" t="s">
         <v>12</v>
       </c>
       <c r="E109" t="s">
-        <v>59</v>
-      </c>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3"/>
-      <c r="L109" s="3"/>
-    </row>
-    <row r="110" spans="1:12" ht="17">
-      <c r="A110" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="34">
       <c r="B110" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C110" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="D110" t="s">
         <v>12</v>
       </c>
       <c r="E110" t="s">
-        <v>62</v>
-      </c>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K110" s="3">
-        <v>0</v>
-      </c>
-      <c r="L110" s="3" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="34">
-      <c r="A111" t="s">
-        <v>39</v>
-      </c>
       <c r="B111" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C111" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="D111" t="s">
         <v>12</v>
       </c>
       <c r="E111" t="s">
-        <v>62</v>
-      </c>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="112" spans="1:12" ht="34">
-      <c r="A112" t="s">
-        <v>39</v>
-      </c>
       <c r="B112" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C112" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="D112" t="s">
         <v>12</v>
       </c>
       <c r="E112" t="s">
-        <v>62</v>
-      </c>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="3"/>
-      <c r="K112" s="3"/>
-      <c r="L112" s="3"/>
-    </row>
-    <row r="113" spans="1:12" ht="17">
-      <c r="A113" t="s">
-        <v>18</v>
-      </c>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="34">
       <c r="B113" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C113" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="D113" t="s">
         <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>62</v>
-      </c>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="3"/>
-      <c r="K113" s="3"/>
-      <c r="L113" s="3"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="114" spans="1:12" ht="34">
-      <c r="A114" t="s">
-        <v>18</v>
-      </c>
       <c r="B114" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C114" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="D114" t="s">
         <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>62</v>
-      </c>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K114" s="3">
-        <v>0</v>
-      </c>
-      <c r="L114" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="17">
       <c r="A115" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C115" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="D115" t="s">
         <v>12</v>
       </c>
       <c r="E115" t="s">
+        <v>59</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H115" s="2">
+        <v>0</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K115" s="3">
+        <v>0</v>
+      </c>
+      <c r="L115" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="34">
+      <c r="A116" t="s">
+        <v>30</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C116" t="s">
+        <v>61</v>
+      </c>
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" t="s">
         <v>62</v>
       </c>
-      <c r="G115" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K115" s="3"/>
-      <c r="L115" s="3"/>
-    </row>
-    <row r="116" spans="1:12" ht="34">
-      <c r="B116" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D116" t="s">
-        <v>12</v>
-      </c>
-      <c r="E116" t="s">
-        <v>58</v>
-      </c>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
     </row>
     <row r="117" spans="1:12" ht="34">
       <c r="B117" s="1" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="D117" t="s">
         <v>12</v>
       </c>
       <c r="E117" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" ht="34">
+        <v>62</v>
+      </c>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+    </row>
+    <row r="118" spans="1:12" ht="17">
+      <c r="A118" t="s">
+        <v>30</v>
+      </c>
       <c r="B118" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" ht="51">
+        <v>209</v>
+      </c>
+      <c r="C118" t="s">
+        <v>31</v>
+      </c>
+      <c r="D118" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" t="s">
+        <v>62</v>
+      </c>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
+    </row>
+    <row r="119" spans="1:12" ht="34">
+      <c r="A119" t="s">
+        <v>30</v>
+      </c>
       <c r="B119" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
+      </c>
+      <c r="C119" t="s">
+        <v>31</v>
       </c>
       <c r="D119" t="s">
         <v>12</v>
       </c>
       <c r="E119" t="s">
-        <v>66</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="3"/>
     </row>
     <row r="120" spans="1:12" ht="17">
+      <c r="A120" t="s">
+        <v>30</v>
+      </c>
       <c r="B120" s="1" t="s">
-        <v>144</v>
+        <v>163</v>
+      </c>
+      <c r="C120" t="s">
+        <v>31</v>
       </c>
       <c r="D120" t="s">
         <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>66</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
     </row>
     <row r="121" spans="1:12" ht="17">
       <c r="A121" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>120</v>
+        <v>286</v>
       </c>
       <c r="C121" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D121" t="s">
         <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>66</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
     </row>
     <row r="122" spans="1:12" ht="34">
+      <c r="A122" t="s">
+        <v>73</v>
+      </c>
       <c r="B122" s="1" t="s">
-        <v>145</v>
+        <v>287</v>
+      </c>
+      <c r="C122" t="s">
+        <v>76</v>
       </c>
       <c r="D122" t="s">
         <v>12</v>
       </c>
       <c r="E122" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" ht="34">
+        <v>62</v>
+      </c>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
+    </row>
+    <row r="123" spans="1:12" ht="17">
+      <c r="A123" t="s">
+        <v>18</v>
+      </c>
       <c r="B123" s="1" t="s">
-        <v>262</v>
+        <v>288</v>
+      </c>
+      <c r="C123" t="s">
+        <v>26</v>
       </c>
       <c r="D123" t="s">
         <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="51">
+        <v>62</v>
+      </c>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3"/>
+      <c r="L123" s="3"/>
+    </row>
+    <row r="124" spans="1:12" ht="17">
+      <c r="A124" t="s">
+        <v>73</v>
+      </c>
       <c r="B124" s="1" t="s">
-        <v>146</v>
+        <v>289</v>
+      </c>
+      <c r="C124" t="s">
+        <v>295</v>
       </c>
       <c r="D124" t="s">
         <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" ht="17">
+        <v>62</v>
+      </c>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
+      <c r="L124" s="3"/>
+    </row>
+    <row r="125" spans="1:12" ht="34">
       <c r="A125" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="C125" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="D125" t="s">
         <v>12</v>
       </c>
       <c r="E125" t="s">
-        <v>66</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H125" s="2">
-        <v>0</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J125" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K125" s="3">
-        <v>0</v>
-      </c>
-      <c r="L125" s="3" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="3"/>
+      <c r="K125" s="3"/>
+      <c r="L125" s="3"/>
     </row>
     <row r="126" spans="1:12" ht="34">
       <c r="A126" t="s">
         <v>18</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>237</v>
+        <v>291</v>
       </c>
       <c r="C126" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D126" t="s">
         <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
@@ -4015,16 +4170,16 @@
         <v>18</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>238</v>
+        <v>292</v>
       </c>
       <c r="C127" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D127" t="s">
         <v>12</v>
       </c>
       <c r="E127" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
@@ -4038,16 +4193,16 @@
         <v>18</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>184</v>
+        <v>293</v>
       </c>
       <c r="C128" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D128" t="s">
         <v>12</v>
       </c>
       <c r="E128" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
@@ -4056,21 +4211,21 @@
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:12" ht="17">
+    <row r="129" spans="1:12" ht="34">
       <c r="A129" t="s">
         <v>18</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="C129" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
@@ -4081,210 +4236,188 @@
     </row>
     <row r="130" spans="1:12" ht="17">
       <c r="A130" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="C130" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D130" t="s">
         <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>66</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
-      <c r="J130" s="3"/>
-      <c r="K130" s="3"/>
-      <c r="L130" s="3"/>
+      <c r="J130" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K130" s="3">
+        <v>0</v>
+      </c>
+      <c r="L130" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="131" spans="1:12" ht="34">
       <c r="A131" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="C131" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D131" t="s">
         <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>66</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="17">
+    <row r="132" spans="1:12" ht="34">
       <c r="A132" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="C132" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D132" t="s">
         <v>12</v>
       </c>
       <c r="E132" t="s">
-        <v>66</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
     </row>
     <row r="133" spans="1:12" ht="17">
       <c r="A133" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>241</v>
+        <v>108</v>
       </c>
       <c r="C133" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="D133" t="s">
         <v>12</v>
       </c>
       <c r="E133" t="s">
-        <v>66</v>
-      </c>
-      <c r="J133" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="3"/>
+      <c r="K133" s="3"/>
+      <c r="L133" s="3"/>
+    </row>
+    <row r="134" spans="1:12" ht="34">
+      <c r="A134" t="s">
+        <v>18</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C134" t="s">
+        <v>24</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" t="s">
+        <v>62</v>
+      </c>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K133" s="3">
-        <v>500</v>
-      </c>
-      <c r="L133" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" ht="17">
-      <c r="A134" t="s">
-        <v>69</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C134" t="s">
-        <v>68</v>
-      </c>
-      <c r="D134" t="s">
-        <v>12</v>
-      </c>
-      <c r="E134" t="s">
-        <v>66</v>
-      </c>
-      <c r="J134" s="3"/>
-      <c r="K134" s="3"/>
-      <c r="L134" s="3"/>
+      <c r="K134" s="3">
+        <v>0</v>
+      </c>
+      <c r="L134" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="135" spans="1:12" ht="17">
       <c r="A135" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>187</v>
+        <v>109</v>
       </c>
       <c r="C135" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D135" t="s">
         <v>12</v>
       </c>
       <c r="E135" t="s">
-        <v>66</v>
-      </c>
-      <c r="J135" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
     </row>
     <row r="136" spans="1:12" ht="34">
-      <c r="A136" t="s">
-        <v>69</v>
-      </c>
       <c r="B136" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C136" t="s">
-        <v>68</v>
+        <v>211</v>
       </c>
       <c r="D136" t="s">
         <v>12</v>
       </c>
       <c r="E136" t="s">
-        <v>66</v>
-      </c>
-      <c r="J136" s="3"/>
-      <c r="K136" s="3"/>
-      <c r="L136" s="3"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="137" spans="1:12" ht="34">
-      <c r="A137" t="s">
-        <v>69</v>
-      </c>
       <c r="B137" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C137" t="s">
-        <v>68</v>
+        <v>166</v>
       </c>
       <c r="D137" t="s">
         <v>12</v>
       </c>
       <c r="E137" t="s">
-        <v>66</v>
-      </c>
-      <c r="J137" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K137" s="3">
-        <v>500</v>
-      </c>
-      <c r="L137" s="3" t="s">
-        <v>149</v>
+        <v>58</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="34">
-      <c r="A138" t="s">
-        <v>22</v>
-      </c>
       <c r="B138" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C138" t="s">
-        <v>65</v>
-      </c>
-      <c r="D138" t="s">
-        <v>12</v>
-      </c>
-      <c r="E138" t="s">
-        <v>66</v>
-      </c>
-      <c r="J138" s="3"/>
-      <c r="K138" s="3"/>
-      <c r="L138" s="3"/>
-    </row>
-    <row r="139" spans="1:12" ht="34">
-      <c r="A139" t="s">
-        <v>18</v>
-      </c>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="51">
       <c r="B139" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C139" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="D139" t="s">
         <v>12</v>
@@ -4292,19 +4425,10 @@
       <c r="E139" t="s">
         <v>66</v>
       </c>
-      <c r="J139" s="3"/>
-      <c r="K139" s="3"/>
-      <c r="L139" s="3"/>
     </row>
     <row r="140" spans="1:12" ht="17">
-      <c r="A140" t="s">
-        <v>18</v>
-      </c>
       <c r="B140" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C140" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="D140" t="s">
         <v>12</v>
@@ -4312,19 +4436,16 @@
       <c r="E140" t="s">
         <v>66</v>
       </c>
-      <c r="J140" s="3"/>
-      <c r="K140" s="3"/>
-      <c r="L140" s="3"/>
-    </row>
-    <row r="141" spans="1:12" ht="34">
+    </row>
+    <row r="141" spans="1:12" ht="17">
       <c r="A141" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="C141" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D141" t="s">
         <v>12</v>
@@ -4332,25 +4453,10 @@
       <c r="E141" t="s">
         <v>66</v>
       </c>
-      <c r="J141" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K141" s="3">
-        <v>500</v>
-      </c>
-      <c r="L141" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" ht="17">
-      <c r="A142" t="s">
-        <v>69</v>
-      </c>
+    </row>
+    <row r="142" spans="1:12" ht="34">
       <c r="B142" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C142" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="D142" t="s">
         <v>12</v>
@@ -4358,19 +4464,10 @@
       <c r="E142" t="s">
         <v>66</v>
       </c>
-      <c r="J142" s="3"/>
-      <c r="K142" s="3"/>
-      <c r="L142" s="3"/>
-    </row>
-    <row r="143" spans="1:12" ht="17">
-      <c r="A143" t="s">
-        <v>69</v>
-      </c>
+    </row>
+    <row r="143" spans="1:12" ht="34">
       <c r="B143" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C143" t="s">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="D143" t="s">
         <v>12</v>
@@ -4378,19 +4475,10 @@
       <c r="E143" t="s">
         <v>66</v>
       </c>
-      <c r="J143" s="3"/>
-      <c r="K143" s="3"/>
-      <c r="L143" s="3"/>
-    </row>
-    <row r="144" spans="1:12" ht="34">
-      <c r="A144" t="s">
-        <v>69</v>
-      </c>
+    </row>
+    <row r="144" spans="1:12" ht="51">
       <c r="B144" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C144" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="D144" t="s">
         <v>12</v>
@@ -4398,19 +4486,16 @@
       <c r="E144" t="s">
         <v>66</v>
       </c>
-      <c r="J144" s="3"/>
-      <c r="K144" s="3"/>
-      <c r="L144" s="3"/>
     </row>
     <row r="145" spans="1:12" ht="17">
       <c r="A145" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>124</v>
+        <v>212</v>
       </c>
       <c r="C145" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D145" t="s">
         <v>12</v>
@@ -4418,19 +4503,34 @@
       <c r="E145" t="s">
         <v>66</v>
       </c>
-      <c r="J145" s="3"/>
-      <c r="K145" s="3"/>
-      <c r="L145" s="3"/>
+      <c r="G145" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H145" s="2">
+        <v>0</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K145" s="3">
+        <v>0</v>
+      </c>
+      <c r="L145" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="146" spans="1:12" ht="34">
       <c r="A146" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="C146" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="D146" t="s">
         <v>12</v>
@@ -4438,19 +4538,22 @@
       <c r="E146" t="s">
         <v>66</v>
       </c>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
     </row>
-    <row r="147" spans="1:12" ht="17">
+    <row r="147" spans="1:12" ht="34">
       <c r="A147" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="C147" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="D147" t="s">
         <v>12</v>
@@ -4458,19 +4561,22 @@
       <c r="E147" t="s">
         <v>66</v>
       </c>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
     </row>
-    <row r="148" spans="1:12" ht="17">
+    <row r="148" spans="1:12" ht="34">
       <c r="A148" t="s">
         <v>18</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D148" t="s">
         <v>12</v>
@@ -4478,19 +4584,22 @@
       <c r="E148" t="s">
         <v>66</v>
       </c>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
     </row>
-    <row r="149" spans="1:12" ht="34">
+    <row r="149" spans="1:12" ht="17">
       <c r="A149" t="s">
         <v>18</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="C149" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D149" t="s">
         <v>12</v>
@@ -4498,6 +4607,9 @@
       <c r="E149" t="s">
         <v>66</v>
       </c>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
@@ -4507,10 +4619,10 @@
         <v>18</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>126</v>
+        <v>274</v>
       </c>
       <c r="C150" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D150" t="s">
         <v>12</v>
@@ -4518,19 +4630,24 @@
       <c r="E150" t="s">
         <v>66</v>
       </c>
+      <c r="G150" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
     </row>
-    <row r="151" spans="1:12" ht="17">
+    <row r="151" spans="1:12" ht="34">
       <c r="A151" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>246</v>
+        <v>168</v>
       </c>
       <c r="C151" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="D151" t="s">
         <v>12</v>
@@ -4538,25 +4655,19 @@
       <c r="E151" t="s">
         <v>66</v>
       </c>
-      <c r="J151" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K151" s="3">
-        <v>500</v>
-      </c>
-      <c r="L151" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" ht="34">
+      <c r="J151" s="3"/>
+      <c r="K151" s="3"/>
+      <c r="L151" s="3"/>
+    </row>
+    <row r="152" spans="1:12" ht="17">
       <c r="A152" t="s">
         <v>18</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>247</v>
+        <v>169</v>
       </c>
       <c r="C152" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D152" t="s">
         <v>12</v>
@@ -4573,10 +4684,10 @@
         <v>69</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="C153" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D153" t="s">
         <v>12</v>
@@ -4591,7 +4702,7 @@
         <v>500</v>
       </c>
       <c r="L153" s="3" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="17">
@@ -4599,10 +4710,10 @@
         <v>69</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="C154" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D154" t="s">
         <v>12</v>
@@ -4614,9 +4725,15 @@
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
     </row>
-    <row r="155" spans="1:12" ht="34">
+    <row r="155" spans="1:12" ht="17">
+      <c r="A155" t="s">
+        <v>69</v>
+      </c>
       <c r="B155" s="1" t="s">
-        <v>147</v>
+        <v>170</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
       </c>
       <c r="D155" t="s">
         <v>12</v>
@@ -4629,8 +4746,14 @@
       <c r="L155" s="3"/>
     </row>
     <row r="156" spans="1:12" ht="34">
+      <c r="A156" t="s">
+        <v>69</v>
+      </c>
       <c r="B156" s="1" t="s">
-        <v>148</v>
+        <v>111</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
       </c>
       <c r="D156" t="s">
         <v>12</v>
@@ -4638,21 +4761,19 @@
       <c r="E156" t="s">
         <v>66</v>
       </c>
-      <c r="J156" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="J156" s="3"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
     </row>
-    <row r="157" spans="1:12" ht="17">
+    <row r="157" spans="1:12" ht="34">
       <c r="A157" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>250</v>
+        <v>112</v>
       </c>
       <c r="C157" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="D157" t="s">
         <v>12</v>
@@ -4660,25 +4781,25 @@
       <c r="E157" t="s">
         <v>66</v>
       </c>
-      <c r="G157" s="2" t="s">
+      <c r="J157" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H157" s="2">
-        <v>-500</v>
-      </c>
-      <c r="I157" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" ht="17">
+      <c r="K157" s="3">
+        <v>500</v>
+      </c>
+      <c r="L157" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="34">
       <c r="A158" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>194</v>
+        <v>297</v>
       </c>
       <c r="C158" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="D158" t="s">
         <v>12</v>
@@ -4686,19 +4807,19 @@
       <c r="E158" t="s">
         <v>66</v>
       </c>
-      <c r="G158" s="2"/>
-      <c r="H158" s="2"/>
-      <c r="I158" s="2"/>
-    </row>
-    <row r="159" spans="1:12" ht="17">
+      <c r="J158" s="3"/>
+      <c r="K158" s="3"/>
+      <c r="L158" s="3"/>
+    </row>
+    <row r="159" spans="1:12" ht="34">
       <c r="A159" t="s">
         <v>18</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="C159" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D159" t="s">
         <v>12</v>
@@ -4706,19 +4827,19 @@
       <c r="E159" t="s">
         <v>66</v>
       </c>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
-      <c r="I159" s="2"/>
+      <c r="J159" s="3"/>
+      <c r="K159" s="3"/>
+      <c r="L159" s="3"/>
     </row>
     <row r="160" spans="1:12" ht="17">
       <c r="A160" t="s">
         <v>18</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="C160" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D160" t="s">
         <v>12</v>
@@ -4726,19 +4847,19 @@
       <c r="E160" t="s">
         <v>66</v>
       </c>
-      <c r="G160" s="2"/>
-      <c r="H160" s="2"/>
-      <c r="I160" s="2"/>
-    </row>
-    <row r="161" spans="1:14" ht="17">
+      <c r="J160" s="3"/>
+      <c r="K160" s="3"/>
+      <c r="L160" s="3"/>
+    </row>
+    <row r="161" spans="1:12" ht="34">
       <c r="A161" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="C161" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D161" t="s">
         <v>12</v>
@@ -4746,21 +4867,25 @@
       <c r="E161" t="s">
         <v>66</v>
       </c>
-      <c r="G161" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H161" s="2"/>
-      <c r="I161" s="2"/>
-    </row>
-    <row r="162" spans="1:14" ht="17">
+      <c r="J161" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K161" s="3">
+        <v>500</v>
+      </c>
+      <c r="L161" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" ht="17">
       <c r="A162" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="C162" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="D162" t="s">
         <v>12</v>
@@ -4768,186 +4893,231 @@
       <c r="E162" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" ht="17">
+      <c r="J162" s="3"/>
+      <c r="K162" s="3"/>
+      <c r="L162" s="3"/>
+    </row>
+    <row r="163" spans="1:12" ht="17">
+      <c r="A163" t="s">
+        <v>69</v>
+      </c>
       <c r="B163" s="1" t="s">
-        <v>265</v>
+        <v>175</v>
+      </c>
+      <c r="C163" t="s">
+        <v>70</v>
       </c>
       <c r="D163" t="s">
         <v>12</v>
       </c>
       <c r="E163" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" ht="34">
+        <v>66</v>
+      </c>
+      <c r="J163" s="3"/>
+      <c r="K163" s="3"/>
+      <c r="L163" s="3"/>
+    </row>
+    <row r="164" spans="1:12" ht="34">
+      <c r="A164" t="s">
+        <v>69</v>
+      </c>
       <c r="B164" s="1" t="s">
-        <v>266</v>
+        <v>113</v>
+      </c>
+      <c r="C164" t="s">
+        <v>70</v>
       </c>
       <c r="D164" t="s">
         <v>12</v>
       </c>
       <c r="E164" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" ht="17">
+        <v>66</v>
+      </c>
+      <c r="J164" s="3"/>
+      <c r="K164" s="3"/>
+      <c r="L164" s="3"/>
+    </row>
+    <row r="165" spans="1:12" ht="17">
+      <c r="A165" t="s">
+        <v>69</v>
+      </c>
       <c r="B165" s="1" t="s">
-        <v>267</v>
+        <v>114</v>
+      </c>
+      <c r="C165" t="s">
+        <v>71</v>
       </c>
       <c r="D165" t="s">
         <v>12</v>
       </c>
       <c r="E165" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" ht="17">
+        <v>66</v>
+      </c>
+      <c r="J165" s="3"/>
+      <c r="K165" s="3"/>
+      <c r="L165" s="3"/>
+    </row>
+    <row r="166" spans="1:12" ht="34">
+      <c r="A166" t="s">
+        <v>69</v>
+      </c>
       <c r="B166" s="1" t="s">
-        <v>267</v>
+        <v>218</v>
+      </c>
+      <c r="C166" t="s">
+        <v>71</v>
       </c>
       <c r="D166" t="s">
         <v>12</v>
       </c>
       <c r="E166" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" ht="17">
+        <v>66</v>
+      </c>
+      <c r="J166" s="3"/>
+      <c r="K166" s="3"/>
+      <c r="L166" s="3"/>
+    </row>
+    <row r="167" spans="1:12" ht="17">
+      <c r="A167" t="s">
+        <v>69</v>
+      </c>
       <c r="B167" s="1" t="s">
-        <v>267</v>
+        <v>176</v>
+      </c>
+      <c r="C167" t="s">
+        <v>71</v>
       </c>
       <c r="D167" t="s">
         <v>12</v>
       </c>
       <c r="E167" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" ht="34">
+        <v>66</v>
+      </c>
+      <c r="J167" s="3"/>
+      <c r="K167" s="3"/>
+      <c r="L167" s="3"/>
+    </row>
+    <row r="168" spans="1:12" ht="17">
       <c r="A168" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="C168" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="D168" t="s">
         <v>12</v>
       </c>
       <c r="E168" t="s">
-        <v>75</v>
-      </c>
-      <c r="F168" t="s">
-        <v>264</v>
-      </c>
-      <c r="J168" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K168" s="3">
-        <v>500</v>
-      </c>
-      <c r="L168" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14" ht="34">
+        <v>66</v>
+      </c>
+      <c r="J168" s="3"/>
+      <c r="K168" s="3"/>
+      <c r="L168" s="3"/>
+    </row>
+    <row r="169" spans="1:12" ht="34">
       <c r="A169" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>252</v>
+        <v>115</v>
       </c>
       <c r="C169" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="D169" t="s">
         <v>12</v>
       </c>
       <c r="E169" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
       <c r="L169" s="3"/>
     </row>
-    <row r="170" spans="1:14" ht="34">
+    <row r="170" spans="1:12" ht="17">
       <c r="A170" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>253</v>
+        <v>116</v>
       </c>
       <c r="C170" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D170" t="s">
         <v>12</v>
       </c>
       <c r="E170" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
       <c r="L170" s="3"/>
     </row>
-    <row r="171" spans="1:14" ht="34">
+    <row r="171" spans="1:12" ht="17">
       <c r="A171" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="C171" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D171" t="s">
         <v>12</v>
       </c>
       <c r="E171" t="s">
-        <v>75</v>
-      </c>
-      <c r="J171" s="3"/>
-      <c r="K171" s="3"/>
-      <c r="L171" s="3"/>
-    </row>
-    <row r="172" spans="1:14" ht="17">
+        <v>66</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K171" s="3">
+        <v>500</v>
+      </c>
+      <c r="L171" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="34">
       <c r="A172" t="s">
         <v>18</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="C172" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D172" t="s">
         <v>12</v>
       </c>
       <c r="E172" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
       <c r="L172" s="3"/>
     </row>
-    <row r="173" spans="1:14" ht="34">
+    <row r="173" spans="1:12" ht="17">
       <c r="A173" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>128</v>
+        <v>221</v>
       </c>
       <c r="C173" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D173" t="s">
         <v>12</v>
       </c>
       <c r="E173" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="J173" s="3" t="s">
         <v>17</v>
@@ -4956,417 +5126,782 @@
         <v>500</v>
       </c>
       <c r="L173" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" ht="17">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" ht="17">
       <c r="A174" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="C174" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D174" t="s">
         <v>12</v>
       </c>
       <c r="E174" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="J174" s="3"/>
       <c r="K174" s="3"/>
       <c r="L174" s="3"/>
     </row>
-    <row r="175" spans="1:14" ht="34">
-      <c r="A175" t="s">
-        <v>73</v>
-      </c>
+    <row r="175" spans="1:12" ht="34">
       <c r="B175" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C175" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="D175" t="s">
         <v>12</v>
       </c>
       <c r="E175" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
       <c r="L175" s="3"/>
-      <c r="M175" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="N175" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" ht="17">
-      <c r="A176" t="s">
-        <v>73</v>
-      </c>
+    </row>
+    <row r="176" spans="1:12" ht="34">
       <c r="B176" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C176" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="D176" t="s">
         <v>12</v>
       </c>
       <c r="E176" t="s">
-        <v>77</v>
-      </c>
-      <c r="J176" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="J176" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="K176" s="3"/>
       <c r="L176" s="3"/>
-      <c r="M176" s="4"/>
-      <c r="N176" s="4"/>
-    </row>
-    <row r="177" spans="1:14" ht="17">
+    </row>
+    <row r="177" spans="1:12" ht="17">
       <c r="A177" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="C177" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D177" t="s">
         <v>12</v>
       </c>
       <c r="E177" t="s">
-        <v>77</v>
-      </c>
-      <c r="J177" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K177" s="3"/>
-      <c r="L177" s="3"/>
-      <c r="M177" s="4"/>
-      <c r="N177" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14" ht="17">
+        <v>66</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H177" s="2">
+        <v>-500</v>
+      </c>
+      <c r="I177" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="17">
       <c r="A178" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D178" t="s">
         <v>12</v>
       </c>
       <c r="E178" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14" ht="17">
+        <v>66</v>
+      </c>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
+    </row>
+    <row r="179" spans="1:12" ht="17">
       <c r="A179" t="s">
         <v>18</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C179" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D179" t="s">
         <v>12</v>
       </c>
       <c r="E179" t="s">
-        <v>77</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H179" s="2">
-        <v>-500</v>
-      </c>
-      <c r="I179" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14" ht="17">
+        <v>66</v>
+      </c>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+      <c r="I179" s="2"/>
+    </row>
+    <row r="180" spans="1:12" ht="17">
       <c r="A180" t="s">
         <v>18</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>202</v>
+        <v>117</v>
       </c>
       <c r="C180" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D180" t="s">
         <v>12</v>
       </c>
       <c r="E180" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
     </row>
-    <row r="181" spans="1:14" ht="34">
+    <row r="181" spans="1:12" ht="17">
       <c r="A181" t="s">
         <v>18</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>272</v>
+        <v>179</v>
       </c>
       <c r="C181" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D181" t="s">
         <v>12</v>
       </c>
       <c r="E181" t="s">
-        <v>77</v>
-      </c>
-      <c r="G181" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
     </row>
-    <row r="182" spans="1:14" ht="17">
+    <row r="182" spans="1:12" ht="17">
       <c r="A182" t="s">
         <v>18</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>259</v>
+        <v>180</v>
       </c>
       <c r="C182" t="s">
+        <v>26</v>
+      </c>
+      <c r="D182" t="s">
+        <v>12</v>
+      </c>
+      <c r="E182" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="17">
+      <c r="B183" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D183" t="s">
+        <v>12</v>
+      </c>
+      <c r="E183" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="34">
+      <c r="B184" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D184" t="s">
+        <v>12</v>
+      </c>
+      <c r="E184" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="17">
+      <c r="B185" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D185" t="s">
+        <v>12</v>
+      </c>
+      <c r="E185" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="17">
+      <c r="B186" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D186" t="s">
+        <v>12</v>
+      </c>
+      <c r="E186" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="17">
+      <c r="B187" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D187" t="s">
+        <v>12</v>
+      </c>
+      <c r="E187" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="34">
+      <c r="A188" t="s">
+        <v>73</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C188" t="s">
+        <v>74</v>
+      </c>
+      <c r="D188" t="s">
+        <v>12</v>
+      </c>
+      <c r="E188" t="s">
+        <v>75</v>
+      </c>
+      <c r="F188" t="s">
+        <v>234</v>
+      </c>
+      <c r="J188" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K188" s="3">
+        <v>500</v>
+      </c>
+      <c r="L188" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="34">
+      <c r="A189" t="s">
+        <v>73</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C189" t="s">
+        <v>74</v>
+      </c>
+      <c r="D189" t="s">
+        <v>12</v>
+      </c>
+      <c r="E189" t="s">
+        <v>75</v>
+      </c>
+      <c r="J189" s="3"/>
+      <c r="K189" s="3"/>
+      <c r="L189" s="3"/>
+    </row>
+    <row r="190" spans="1:12" ht="34">
+      <c r="A190" t="s">
+        <v>73</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C190" t="s">
+        <v>74</v>
+      </c>
+      <c r="D190" t="s">
+        <v>12</v>
+      </c>
+      <c r="E190" t="s">
+        <v>75</v>
+      </c>
+      <c r="J190" s="3"/>
+      <c r="K190" s="3"/>
+      <c r="L190" s="3"/>
+    </row>
+    <row r="191" spans="1:12" ht="34">
+      <c r="A191" t="s">
+        <v>18</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C191" t="s">
         <v>24</v>
       </c>
-      <c r="D182" t="s">
-        <v>12</v>
-      </c>
-      <c r="E182" t="s">
+      <c r="D191" t="s">
+        <v>12</v>
+      </c>
+      <c r="E191" t="s">
+        <v>75</v>
+      </c>
+      <c r="J191" s="3"/>
+      <c r="K191" s="3"/>
+      <c r="L191" s="3"/>
+    </row>
+    <row r="192" spans="1:12" ht="17">
+      <c r="A192" t="s">
+        <v>18</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C192" t="s">
+        <v>24</v>
+      </c>
+      <c r="D192" t="s">
+        <v>12</v>
+      </c>
+      <c r="E192" t="s">
+        <v>75</v>
+      </c>
+      <c r="J192" s="3"/>
+      <c r="K192" s="3"/>
+      <c r="L192" s="3"/>
+    </row>
+    <row r="193" spans="1:14" ht="34">
+      <c r="A193" t="s">
+        <v>73</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C193" t="s">
+        <v>76</v>
+      </c>
+      <c r="D193" t="s">
+        <v>12</v>
+      </c>
+      <c r="E193" t="s">
         <v>77</v>
       </c>
-      <c r="G182" s="2"/>
-      <c r="H182" s="2"/>
-      <c r="I182" s="2"/>
-      <c r="M182" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="N182" s="4" t="s">
+      <c r="J193" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" ht="34">
-      <c r="A183" t="s">
+      <c r="K193" s="3">
+        <v>500</v>
+      </c>
+      <c r="L193" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" ht="17">
+      <c r="A194" t="s">
         <v>18</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C183" t="s">
+      <c r="B194" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C194" t="s">
+        <v>76</v>
+      </c>
+      <c r="D194" t="s">
+        <v>12</v>
+      </c>
+      <c r="E194" t="s">
+        <v>77</v>
+      </c>
+      <c r="J194" s="3"/>
+      <c r="K194" s="3"/>
+      <c r="L194" s="3"/>
+    </row>
+    <row r="195" spans="1:14" ht="34">
+      <c r="A195" t="s">
+        <v>73</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C195" t="s">
+        <v>76</v>
+      </c>
+      <c r="D195" t="s">
+        <v>12</v>
+      </c>
+      <c r="E195" t="s">
+        <v>77</v>
+      </c>
+      <c r="J195" s="3"/>
+      <c r="K195" s="3"/>
+      <c r="L195" s="3"/>
+      <c r="M195" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="N195" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" ht="17">
+      <c r="A196" t="s">
+        <v>73</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C196" t="s">
+        <v>76</v>
+      </c>
+      <c r="D196" t="s">
+        <v>12</v>
+      </c>
+      <c r="E196" t="s">
+        <v>77</v>
+      </c>
+      <c r="J196" s="3"/>
+      <c r="K196" s="3"/>
+      <c r="L196" s="3"/>
+      <c r="M196" s="4"/>
+      <c r="N196" s="4"/>
+    </row>
+    <row r="197" spans="1:14" ht="17">
+      <c r="A197" t="s">
+        <v>73</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C197" t="s">
+        <v>76</v>
+      </c>
+      <c r="D197" t="s">
+        <v>12</v>
+      </c>
+      <c r="E197" t="s">
+        <v>77</v>
+      </c>
+      <c r="J197" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K197" s="3"/>
+      <c r="L197" s="3"/>
+      <c r="M197" s="4"/>
+      <c r="N197" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" ht="17">
+      <c r="A198" t="s">
+        <v>73</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C198" t="s">
+        <v>76</v>
+      </c>
+      <c r="D198" t="s">
+        <v>12</v>
+      </c>
+      <c r="E198" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" ht="17">
+      <c r="A199" t="s">
+        <v>18</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C199" t="s">
+        <v>25</v>
+      </c>
+      <c r="D199" t="s">
+        <v>12</v>
+      </c>
+      <c r="E199" t="s">
+        <v>77</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H199" s="2">
+        <v>-500</v>
+      </c>
+      <c r="I199" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" ht="17">
+      <c r="A200" t="s">
+        <v>18</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C200" t="s">
         <v>24</v>
       </c>
-      <c r="D183" t="s">
-        <v>12</v>
-      </c>
-      <c r="E183" t="s">
+      <c r="D200" t="s">
+        <v>12</v>
+      </c>
+      <c r="E200" t="s">
         <v>77</v>
       </c>
-      <c r="G183" s="2"/>
-      <c r="H183" s="2"/>
-      <c r="I183" s="2"/>
-      <c r="M183" s="4"/>
-      <c r="N183" s="4"/>
-    </row>
-    <row r="184" spans="1:14" ht="34">
-      <c r="A184" t="s">
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+    </row>
+    <row r="201" spans="1:14" ht="34">
+      <c r="A201" t="s">
         <v>18</v>
       </c>
-      <c r="B184" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C184" t="s">
+      <c r="B201" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C201" t="s">
+        <v>24</v>
+      </c>
+      <c r="D201" t="s">
+        <v>12</v>
+      </c>
+      <c r="E201" t="s">
+        <v>77</v>
+      </c>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="2"/>
+    </row>
+    <row r="202" spans="1:14" ht="17">
+      <c r="A202" t="s">
+        <v>18</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C202" t="s">
+        <v>24</v>
+      </c>
+      <c r="D202" t="s">
+        <v>12</v>
+      </c>
+      <c r="E202" t="s">
+        <v>77</v>
+      </c>
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+      <c r="I202" s="2"/>
+      <c r="M202" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="N202" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" ht="34">
+      <c r="A203" t="s">
+        <v>18</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C203" t="s">
+        <v>24</v>
+      </c>
+      <c r="D203" t="s">
+        <v>12</v>
+      </c>
+      <c r="E203" t="s">
+        <v>77</v>
+      </c>
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
+      <c r="M203" s="4"/>
+      <c r="N203" s="4"/>
+    </row>
+    <row r="204" spans="1:14" ht="34">
+      <c r="A204" t="s">
+        <v>18</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C204" t="s">
         <v>26</v>
       </c>
-      <c r="D184" t="s">
-        <v>12</v>
-      </c>
-      <c r="E184" t="s">
+      <c r="D204" t="s">
+        <v>12</v>
+      </c>
+      <c r="E204" t="s">
         <v>77</v>
       </c>
-      <c r="G184" s="2" t="s">
+      <c r="G204" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H184" s="2">
+      <c r="H204" s="2">
         <v>-500</v>
       </c>
-      <c r="I184" s="2" t="s">
+      <c r="I204" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M184" s="4"/>
-      <c r="N184" s="4" t="s">
+      <c r="M204" s="4"/>
+      <c r="N204" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="185" spans="1:14" ht="17">
-      <c r="A185" t="s">
+    <row r="205" spans="1:14" ht="17">
+      <c r="A205" t="s">
         <v>18</v>
       </c>
-      <c r="B185" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C185" t="s">
+      <c r="B205" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C205" t="s">
         <v>26</v>
       </c>
-      <c r="D185" t="s">
-        <v>12</v>
-      </c>
-      <c r="E185" t="s">
+      <c r="D205" t="s">
+        <v>12</v>
+      </c>
+      <c r="E205" t="s">
         <v>77</v>
       </c>
-      <c r="G185" s="2"/>
-      <c r="H185" s="2"/>
-      <c r="I185" s="2"/>
-    </row>
-    <row r="186" spans="1:14" ht="34">
-      <c r="A186" t="s">
+      <c r="G205" s="2"/>
+      <c r="H205" s="2"/>
+      <c r="I205" s="2"/>
+    </row>
+    <row r="206" spans="1:14" ht="34">
+      <c r="A206" t="s">
         <v>18</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C186" t="s">
+      <c r="B206" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C206" t="s">
         <v>26</v>
       </c>
-      <c r="D186" t="s">
-        <v>12</v>
-      </c>
-      <c r="E186" t="s">
+      <c r="D206" t="s">
+        <v>12</v>
+      </c>
+      <c r="E206" t="s">
         <v>77</v>
       </c>
-      <c r="G186" s="2"/>
-      <c r="H186" s="2"/>
-      <c r="I186" s="2"/>
-    </row>
-    <row r="187" spans="1:14" ht="17">
-      <c r="A187" t="s">
+      <c r="G206" s="2"/>
+      <c r="H206" s="2"/>
+      <c r="I206" s="2"/>
+    </row>
+    <row r="207" spans="1:14" ht="17">
+      <c r="A207" t="s">
         <v>73</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C187" t="s">
+      <c r="B207" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C207" t="s">
         <v>74</v>
       </c>
-      <c r="D187" t="s">
-        <v>12</v>
-      </c>
-      <c r="E187" t="s">
+      <c r="D207" t="s">
+        <v>12</v>
+      </c>
+      <c r="E207" t="s">
         <v>77</v>
       </c>
-      <c r="G187" s="2"/>
-      <c r="H187" s="2"/>
-      <c r="I187" s="2"/>
-    </row>
-    <row r="188" spans="1:14" ht="17">
-      <c r="A188" t="s">
+      <c r="G207" s="2"/>
+      <c r="H207" s="2"/>
+      <c r="I207" s="2"/>
+    </row>
+    <row r="208" spans="1:14" ht="17">
+      <c r="A208" t="s">
         <v>18</v>
       </c>
-      <c r="B188" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C188" t="s">
+      <c r="B208" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C208" t="s">
         <v>78</v>
       </c>
-      <c r="D188" t="s">
-        <v>12</v>
-      </c>
-      <c r="E188" t="s">
+      <c r="D208" t="s">
+        <v>12</v>
+      </c>
+      <c r="E208" t="s">
         <v>77</v>
       </c>
-      <c r="G188" s="2" t="s">
+      <c r="G208" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H188" s="2">
+      <c r="H208" s="2">
         <v>-500</v>
       </c>
-      <c r="I188" s="2" t="s">
+      <c r="I208" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="189" spans="1:14" ht="17">
-      <c r="A189" t="s">
+    <row r="209" spans="1:9" ht="17">
+      <c r="A209" t="s">
         <v>18</v>
       </c>
-      <c r="B189" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C189" t="s">
+      <c r="B209" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C209" t="s">
         <v>78</v>
       </c>
-      <c r="D189" t="s">
-        <v>12</v>
-      </c>
-      <c r="E189" t="s">
+      <c r="D209" t="s">
+        <v>12</v>
+      </c>
+      <c r="E209" t="s">
         <v>77</v>
       </c>
-      <c r="G189" s="2" t="s">
+      <c r="G209" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H189" s="2"/>
-      <c r="I189" s="2"/>
-    </row>
-    <row r="190" spans="1:14" ht="34">
-      <c r="B190" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D190" t="s">
-        <v>12</v>
-      </c>
-      <c r="E190" t="s">
+      <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
+    </row>
+    <row r="210" spans="1:9" ht="34">
+      <c r="B210" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D210" t="s">
+        <v>12</v>
+      </c>
+      <c r="E210" t="s">
         <v>58</v>
       </c>
-      <c r="G190" s="2"/>
-      <c r="H190" s="2"/>
-      <c r="I190" s="2"/>
-    </row>
-    <row r="191" spans="1:14" ht="34">
-      <c r="B191" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D191" t="s">
-        <v>12</v>
-      </c>
-      <c r="E191" t="s">
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="2"/>
+    </row>
+    <row r="211" spans="1:9" ht="34">
+      <c r="B211" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D211" t="s">
+        <v>12</v>
+      </c>
+      <c r="E211" t="s">
         <v>58</v>
       </c>
-      <c r="G191" s="2"/>
-      <c r="H191" s="2"/>
-      <c r="I191" s="2"/>
-    </row>
-    <row r="192" spans="1:14" ht="17">
-      <c r="B192" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D192" t="s">
-        <v>12</v>
-      </c>
-      <c r="E192" t="s">
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+      <c r="I211" s="2"/>
+    </row>
+    <row r="212" spans="1:9" ht="17">
+      <c r="B212" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D212" t="s">
+        <v>12</v>
+      </c>
+      <c r="E212" t="s">
         <v>58</v>
       </c>
-      <c r="G192" s="2"/>
-      <c r="H192" s="2"/>
-      <c r="I192" s="2"/>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
-        <v>260</v>
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
+      <c r="I212" s="2"/>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
